--- a/数值规划/B游戏想法记录.xlsx
+++ b/数值规划/B游戏想法记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="7"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="贪石蛇" sheetId="9" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="伪随机计算" sheetId="13" r:id="rId3"/>
     <sheet name="除法公式" sheetId="10" r:id="rId4"/>
     <sheet name="属性" sheetId="7" r:id="rId5"/>
-    <sheet name="免伤与闪避" sheetId="6" r:id="rId6"/>
+    <sheet name="减伤与闪避" sheetId="6" r:id="rId6"/>
     <sheet name="货币、经济" sheetId="5" r:id="rId7"/>
     <sheet name="家装尺寸" sheetId="4" r:id="rId8"/>
     <sheet name="PVE与PVP" sheetId="14" r:id="rId9"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="376">
   <si>
     <t>主题</t>
   </si>
@@ -872,7 +872,7 @@
     <t>提高生命质量</t>
   </si>
   <si>
-    <t>免伤</t>
+    <t>减伤</t>
   </si>
   <si>
     <t>闪避</t>
@@ -884,16 +884,16 @@
     <t>60%/100%</t>
   </si>
   <si>
+    <t>物免</t>
+  </si>
+  <si>
+    <t>无视受到的普攻伤害，不无视攻击效果</t>
+  </si>
+  <si>
     <t>魔抗</t>
   </si>
   <si>
-    <t>减少受到的技能伤害</t>
-  </si>
-  <si>
-    <t>物免</t>
-  </si>
-  <si>
-    <t>无视受到的普攻伤害，不无视攻击效果</t>
+    <t>减少受到的技能伤害，不无视技能效果</t>
   </si>
   <si>
     <t>魔免</t>
@@ -977,6 +977,9 @@
     <t>降低被命中率，躲避越有价值的游戏，价值越高</t>
   </si>
   <si>
+    <t>100%/∞</t>
+  </si>
+  <si>
     <t>玩家生存(时间):</t>
   </si>
   <si>
@@ -992,10 +995,19 @@
     <t>基础时长</t>
   </si>
   <si>
-    <t>免伤/闪避率</t>
+    <t>刀塔</t>
+  </si>
+  <si>
+    <t>y=±0.06x/（1+0.06x）</t>
+  </si>
+  <si>
+    <t>减伤/闪避率</t>
   </si>
   <si>
     <t>生存能力</t>
+  </si>
+  <si>
+    <t>护甲</t>
   </si>
   <si>
     <t>游戏货币在设计之初就不应该成为玩家经济行为的的“终点站”更不应该是“游戏的目的”，而应该是一种用于换取其他物品的通道，所以在最初的设计上就应该鼓励玩家“多花钱”而不是“攒钱”。</t>
@@ -1234,8 +1246,8 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="31">
@@ -1947,7 +1959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1966,9 +1978,6 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1981,7 +1990,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1997,6 +2006,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2044,7 +2056,7 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2053,16 +2065,16 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2090,9 +2102,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3760,11 +3769,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>免伤与闪避!$F$9</c:f>
+              <c:f>减伤与闪避!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>免伤/闪避率</c:v>
+                  <c:v>减伤/闪避率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3786,7 +3795,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>免伤与闪避!$F$10:$F$108</c:f>
+              <c:f>减伤与闪避!$F$10:$F$108</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="99"/>
@@ -4097,7 +4106,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>免伤与闪避!$H$9</c:f>
+              <c:f>减伤与闪避!$H$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4123,7 +4132,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>免伤与闪避!$H$10:$H$108</c:f>
+              <c:f>减伤与闪避!$H$10:$H$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -4683,11 +4692,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>免伤与闪避!$F$9</c:f>
+              <c:f>减伤与闪避!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>免伤/闪避率</c:v>
+                  <c:v>减伤/闪避率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4709,7 +4718,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>免伤与闪避!$F$10:$F$99</c:f>
+              <c:f>减伤与闪避!$F$10:$F$99</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="90"/>
@@ -4993,7 +5002,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>免伤与闪避!$H$9</c:f>
+              <c:f>减伤与闪避!$H$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5019,7 +5028,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>免伤与闪避!$H$10:$H$99</c:f>
+              <c:f>减伤与闪避!$H$10:$H$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
@@ -7456,44 +7465,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:24">
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
     </row>
     <row r="2" spans="12:24">
       <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="54" t="s">
+      <c r="V2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="54" t="s">
+      <c r="W2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="54" t="s">
+      <c r="X2" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="6:24">
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -7519,7 +7528,7 @@
       </c>
     </row>
     <row r="4" spans="6:24">
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -7542,7 +7551,7 @@
       </c>
     </row>
     <row r="5" spans="6:24">
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -7610,29 +7619,29 @@
       </c>
     </row>
     <row r="11" spans="21:24">
-      <c r="U11" s="53" t="s">
+      <c r="U11" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
     </row>
     <row r="12" spans="21:24">
-      <c r="U12" s="54" t="s">
+      <c r="U12" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="54" t="s">
+      <c r="V12" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="W12" s="54" t="s">
+      <c r="W12" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="X12" s="54" t="s">
+      <c r="X12" s="53" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="21:24">
-      <c r="U13" s="55">
+      <c r="U13" s="54">
         <v>0</v>
       </c>
       <c r="V13" s="23">
@@ -7691,20 +7700,20 @@
       </c>
     </row>
     <row r="18" spans="21:23">
-      <c r="U18" s="53" t="s">
+      <c r="U18" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
     </row>
     <row r="19" spans="21:23">
-      <c r="U19" s="54" t="s">
+      <c r="U19" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="V19" s="54" t="s">
+      <c r="V19" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="W19" s="54" t="s">
+      <c r="W19" s="53" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7764,20 +7773,20 @@
       </c>
     </row>
     <row r="26" spans="21:23">
-      <c r="U26" s="53" t="s">
+      <c r="U26" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
     </row>
     <row r="27" spans="21:23">
-      <c r="U27" s="54" t="s">
+      <c r="U27" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="V27" s="54" t="s">
+      <c r="V27" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="W27" s="54" t="s">
+      <c r="W27" s="53" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7877,14 +7886,14 @@
   <dimension ref="F5:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="5" ht="15.6" spans="6:17">
       <c r="F5" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7900,7 +7909,7 @@
     </row>
     <row r="6" ht="15.6" spans="6:17">
       <c r="F6" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -7916,7 +7925,7 @@
     </row>
     <row r="7" ht="15.6" spans="6:17">
       <c r="F7" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -7933,7 +7942,7 @@
     <row r="8" ht="15.6" spans="6:17">
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -7949,7 +7958,7 @@
     <row r="9" ht="15.6" spans="6:17">
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -7964,7 +7973,7 @@
     </row>
     <row r="10" ht="15.6" spans="6:17">
       <c r="F10" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -8024,7 +8033,7 @@
     </row>
     <row r="14" ht="15.6" spans="6:17">
       <c r="F14" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -8040,7 +8049,7 @@
     </row>
     <row r="15" ht="15.6" spans="6:17">
       <c r="F15" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -8057,7 +8066,7 @@
     <row r="16" ht="15.6" spans="6:17">
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -8072,7 +8081,7 @@
     </row>
     <row r="17" ht="15.6" spans="6:17">
       <c r="F17" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -8089,7 +8098,7 @@
     <row r="18" ht="15.6" spans="6:17">
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -8209,27 +8218,27 @@
       <c r="B3" s="47">
         <v>1</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="7">
         <f>$B3+C$2</f>
         <v>2</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="7">
         <f>$B3+D$2</f>
         <v>3</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="7">
         <f>$B3+E$2</f>
         <v>4</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="7">
         <f>$B3+F$2</f>
         <v>5</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="7">
         <f>$B3+G$2</f>
         <v>6</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="7">
         <f>$B3+H$2</f>
         <v>7</v>
       </c>
@@ -8238,27 +8247,27 @@
       <c r="B4" s="47">
         <v>2</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="7">
         <f>$B4+C$2</f>
         <v>3</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="7">
         <f>$B4+D$2</f>
         <v>4</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="7">
         <f>$B4+E$2</f>
         <v>5</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="7">
         <f>$B4+F$2</f>
         <v>6</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="7">
         <f>$B4+G$2</f>
         <v>7</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="7">
         <f>$B4+H$2</f>
         <v>8</v>
       </c>
@@ -8267,27 +8276,27 @@
       <c r="B5" s="47">
         <v>3</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="7">
         <f>$B5+C$2</f>
         <v>4</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="7">
         <f>$B5+D$2</f>
         <v>5</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="7">
         <f>$B5+E$2</f>
         <v>6</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="7">
         <f>$B5+F$2</f>
         <v>7</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="7">
         <f>$B5+G$2</f>
         <v>8</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="7">
         <f>$B5+H$2</f>
         <v>9</v>
       </c>
@@ -8296,27 +8305,27 @@
       <c r="B6" s="47">
         <v>4</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="7">
         <f>$B6+C$2</f>
         <v>5</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="7">
         <f>$B6+D$2</f>
         <v>6</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="7">
         <f>$B6+E$2</f>
         <v>7</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="7">
         <f>$B6+F$2</f>
         <v>8</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="7">
         <f>$B6+G$2</f>
         <v>9</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="7">
         <f>$B6+H$2</f>
         <v>10</v>
       </c>
@@ -8325,27 +8334,27 @@
       <c r="B7" s="47">
         <v>5</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="7">
         <f>$B7+C$2</f>
         <v>6</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="7">
         <f>$B7+D$2</f>
         <v>7</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="7">
         <f>$B7+E$2</f>
         <v>8</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="7">
         <f>$B7+F$2</f>
         <v>9</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="7">
         <f>$B7+G$2</f>
         <v>10</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="7">
         <f>$B7+H$2</f>
         <v>11</v>
       </c>
@@ -8354,27 +8363,27 @@
       <c r="B8" s="47">
         <v>6</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="7">
         <f>$B8+C$2</f>
         <v>7</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="7">
         <f>$B8+D$2</f>
         <v>8</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="7">
         <f>$B8+E$2</f>
         <v>9</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="7">
         <f>$B8+F$2</f>
         <v>10</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="7">
         <f>$B8+G$2</f>
         <v>11</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="7">
         <f>$B8+H$2</f>
         <v>12</v>
       </c>
@@ -8386,130 +8395,130 @@
       <c r="D10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="48" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="50">
+      <c r="C11" s="49">
         <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="50">
         <f t="shared" ref="E11:E32" si="0">36/D11</f>
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="50">
+      <c r="C12" s="49">
         <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="50">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="50">
+      <c r="C13" s="49">
         <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <v>5</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="50">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="50">
+      <c r="C15" s="49">
         <v>6</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="50">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="50">
+      <c r="C16" s="49">
         <v>7</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="50">
+      <c r="C17" s="49">
         <v>8</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="50">
+      <c r="C18" s="49">
         <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="50">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="50">
+      <c r="C19" s="49">
         <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="50">
+      <c r="C20" s="49">
         <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="50">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="49" t="s">
         <v>91</v>
       </c>
       <c r="H20" s="1">
@@ -8518,17 +8527,17 @@
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="50">
+      <c r="C21" s="49">
         <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="50">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="49">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8538,46 +8547,46 @@
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="1">
         <f>D12+D14+D16+D18+D20</f>
         <v>18</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="1">
         <f>D11+D13+D15+D17+D19+D21</f>
         <v>18</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G23" s="50"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="3:15">
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="1">
         <f>SUM(D11:D15)</f>
         <v>15</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="50">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="G24" s="50"/>
+      <c r="G24" s="49"/>
       <c r="N24" s="1" t="s">
         <v>95</v>
       </c>
@@ -8586,18 +8595,18 @@
       </c>
     </row>
     <row r="25" spans="3:15">
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>97</v>
       </c>
       <c r="D25" s="1">
         <f>SUM(D17:D21)</f>
         <v>15</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="50">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="G25" s="50"/>
+      <c r="G25" s="49"/>
       <c r="N25" s="1" t="s">
         <v>95</v>
       </c>
@@ -8606,17 +8615,17 @@
       </c>
     </row>
     <row r="26" spans="3:15">
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="49" t="s">
         <v>99</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G26" s="50"/>
+      <c r="G26" s="49"/>
       <c r="N26" s="1" t="s">
         <v>95</v>
       </c>
@@ -8625,17 +8634,17 @@
       </c>
     </row>
     <row r="27" spans="3:15">
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="49" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="49" t="s">
         <v>102</v>
       </c>
       <c r="H27" s="1">
@@ -8650,17 +8659,17 @@
       </c>
     </row>
     <row r="28" spans="3:15">
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="49" t="s">
         <v>104</v>
       </c>
       <c r="D28" s="1">
         <v>6</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="55" t="s">
         <v>105</v>
       </c>
       <c r="H28" s="1">
@@ -8675,13 +8684,13 @@
       </c>
     </row>
     <row r="29" spans="3:15">
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="49" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="1">
         <v>6</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8690,13 +8699,13 @@
       </c>
     </row>
     <row r="30" spans="3:15">
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8705,13 +8714,13 @@
       </c>
     </row>
     <row r="31" spans="3:15">
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="49" t="s">
         <v>111</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8723,13 +8732,13 @@
       </c>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="49" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="1">
         <v>6</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8744,7 +8753,7 @@
       </c>
     </row>
     <row r="33" spans="3:15">
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>116</v>
       </c>
       <c r="D33" s="1">
@@ -8761,7 +8770,7 @@
       </c>
     </row>
     <row r="34" spans="3:15">
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="49" t="s">
         <v>118</v>
       </c>
       <c r="D34" s="1">
@@ -8778,7 +8787,7 @@
       </c>
     </row>
     <row r="35" spans="3:15">
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D35" s="1">
@@ -8792,7 +8801,7 @@
       </c>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="49" t="s">
         <v>123</v>
       </c>
       <c r="D36" s="1">
@@ -8806,7 +8815,7 @@
       </c>
     </row>
     <row r="37" spans="3:15">
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="1">
@@ -8820,7 +8829,7 @@
       </c>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="49" t="s">
         <v>127</v>
       </c>
       <c r="D38" s="1">
@@ -14366,7 +14375,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>190</v>
       </c>
       <c r="O13" s="4">
@@ -31697,8 +31706,8 @@
   <sheetPr/>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -32038,8 +32047,8 @@
       <c r="G52" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H52" s="19" t="s">
-        <v>259</v>
+      <c r="H52" s="18" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="4:8">
@@ -32050,8 +32059,8 @@
       <c r="G53" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H53" s="18" t="s">
-        <v>203</v>
+      <c r="H53" s="19" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="4:8">
@@ -32106,11 +32115,11 @@
     </row>
     <row r="59" spans="4:8">
       <c r="D59" s="21"/>
-      <c r="H59" s="12"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="4:8">
       <c r="D60" s="21"/>
-      <c r="H60" s="12"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="4:8">
       <c r="D61" s="21"/>
@@ -32120,7 +32129,7 @@
       <c r="G61" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="11" t="s">
         <v>203</v>
       </c>
     </row>
@@ -32129,7 +32138,7 @@
       <c r="F62" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="11" t="s">
         <v>203</v>
       </c>
     </row>
@@ -32221,15 +32230,15 @@
         <v>290</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="4:5">
       <c r="D80" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -32255,10 +32264,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="F3:I122"/>
+  <dimension ref="F3:V122"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="17.4"/>
@@ -32267,12 +32276,17 @@
     <col min="6" max="6" width="13.8888888888889" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.5555555555556" style="4"/>
     <col min="8" max="8" width="15.2222222222222" style="4"/>
-    <col min="9" max="16384" width="11.5555555555556" style="4"/>
+    <col min="9" max="18" width="11.5555555555556" style="4"/>
+    <col min="19" max="19" width="12.1111111111111" style="4"/>
+    <col min="20" max="20" width="17.1111111111111" style="4"/>
+    <col min="21" max="24" width="11.5555555555556" style="4"/>
+    <col min="25" max="25" width="17.1111111111111" style="4"/>
+    <col min="26" max="16384" width="11.5555555555556" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="6:7">
       <c r="F3" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G3" s="4">
         <v>1000</v>
@@ -32280,7 +32294,7 @@
     </row>
     <row r="4" spans="6:7">
       <c r="F4" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G4" s="4">
         <v>10</v>
@@ -32288,16 +32302,24 @@
     </row>
     <row r="5" spans="6:7">
       <c r="F5" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G5" s="4">
         <f>G3/G4</f>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="6:9">
+    <row r="6" spans="18:19">
+      <c r="R6" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="6:22">
       <c r="F9" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>178</v>
@@ -32306,11 +32328,26 @@
         <v>192</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="6:9">
-      <c r="F10" s="12">
+        <v>300</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="6:22">
+      <c r="F10" s="11">
         <v>0.01</v>
       </c>
       <c r="G10" s="4">
@@ -32321,13 +32358,32 @@
         <f>ROUND($G$3/G10,2)</f>
         <v>101.01</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <f>H10/$G$5</f>
         <v>1.0101</v>
       </c>
-    </row>
-    <row r="11" spans="6:9">
-      <c r="F11" s="12">
+      <c r="R10" s="4">
+        <v>-50</v>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" ref="S10:S41" si="0">-0.06*ABS(R10)/(1+0.06*ABS(R10))</f>
+        <v>-0.75</v>
+      </c>
+      <c r="T10" s="4">
+        <f>$G$4*(1-S10)</f>
+        <v>17.5</v>
+      </c>
+      <c r="U10" s="4">
+        <f>ROUND($G$3/T10,2)</f>
+        <v>57.14</v>
+      </c>
+      <c r="V10" s="14">
+        <f>U10/$G$5</f>
+        <v>0.5714</v>
+      </c>
+    </row>
+    <row r="11" spans="6:22">
+      <c r="F11" s="11">
         <v>0.02</v>
       </c>
       <c r="G11" s="4">
@@ -32338,13 +32394,32 @@
         <f>ROUND($G$3/G11,2)</f>
         <v>102.04</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <f>H11/$G$5</f>
         <v>1.0204</v>
       </c>
-    </row>
-    <row r="12" spans="6:9">
-      <c r="F12" s="12">
+      <c r="R11" s="4">
+        <v>-49</v>
+      </c>
+      <c r="S11" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.746192893401015</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" ref="T11:T42" si="1">$G$4*(1-S11)</f>
+        <v>17.4619289340102</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" ref="U11:U42" si="2">ROUND($G$3/T11,2)</f>
+        <v>57.27</v>
+      </c>
+      <c r="V11" s="14">
+        <f t="shared" ref="V11:V42" si="3">U11/$G$5</f>
+        <v>0.5727</v>
+      </c>
+    </row>
+    <row r="12" spans="6:22">
+      <c r="F12" s="11">
         <v>0.03</v>
       </c>
       <c r="G12" s="4">
@@ -32355,13 +32430,32 @@
         <f>ROUND($G$3/G12,2)</f>
         <v>103.09</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <f>H12/$G$5</f>
         <v>1.0309</v>
       </c>
-    </row>
-    <row r="13" spans="6:9">
-      <c r="F13" s="12">
+      <c r="R12" s="4">
+        <v>-48</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.742268041237113</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="1"/>
+        <v>17.4226804123711</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="2"/>
+        <v>57.4</v>
+      </c>
+      <c r="V12" s="14">
+        <f t="shared" si="3"/>
+        <v>0.574</v>
+      </c>
+    </row>
+    <row r="13" spans="6:22">
+      <c r="F13" s="11">
         <v>0.04</v>
       </c>
       <c r="G13" s="4">
@@ -32372,13 +32466,32 @@
         <f>ROUND($G$3/G13,2)</f>
         <v>104.17</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <f>H13/$G$5</f>
         <v>1.0417</v>
       </c>
-    </row>
-    <row r="14" spans="6:9">
-      <c r="F14" s="12">
+      <c r="R13" s="4">
+        <v>-47</v>
+      </c>
+      <c r="S13" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.738219895287958</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="1"/>
+        <v>17.3821989528796</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="2"/>
+        <v>57.53</v>
+      </c>
+      <c r="V13" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5753</v>
+      </c>
+    </row>
+    <row r="14" spans="6:22">
+      <c r="F14" s="11">
         <v>0.05</v>
       </c>
       <c r="G14" s="4">
@@ -32389,13 +32502,32 @@
         <f>ROUND($G$3/G14,2)</f>
         <v>105.26</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <f>H14/$G$5</f>
         <v>1.0526</v>
       </c>
-    </row>
-    <row r="15" spans="6:9">
-      <c r="F15" s="12">
+      <c r="R14" s="4">
+        <v>-46</v>
+      </c>
+      <c r="S14" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.734042553191489</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="1"/>
+        <v>17.3404255319149</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="2"/>
+        <v>57.67</v>
+      </c>
+      <c r="V14" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5767</v>
+      </c>
+    </row>
+    <row r="15" spans="6:22">
+      <c r="F15" s="11">
         <v>0.06</v>
       </c>
       <c r="G15" s="4">
@@ -32406,13 +32538,32 @@
         <f>ROUND($G$3/G15,2)</f>
         <v>106.38</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <f>H15/$G$5</f>
         <v>1.0638</v>
       </c>
-    </row>
-    <row r="16" spans="6:9">
-      <c r="F16" s="12">
+      <c r="R15" s="4">
+        <v>-45</v>
+      </c>
+      <c r="S15" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.72972972972973</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="1"/>
+        <v>17.2972972972973</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="2"/>
+        <v>57.81</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5781</v>
+      </c>
+    </row>
+    <row r="16" spans="6:22">
+      <c r="F16" s="11">
         <v>0.07</v>
       </c>
       <c r="G16" s="4">
@@ -32423,13 +32574,32 @@
         <f>ROUND($G$3/G16,2)</f>
         <v>107.53</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <f>H16/$G$5</f>
         <v>1.0753</v>
       </c>
-    </row>
-    <row r="17" spans="6:9">
-      <c r="F17" s="12">
+      <c r="R16" s="4">
+        <v>-44</v>
+      </c>
+      <c r="S16" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.725274725274725</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="1"/>
+        <v>17.2527472527473</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="2"/>
+        <v>57.96</v>
+      </c>
+      <c r="V16" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5796</v>
+      </c>
+    </row>
+    <row r="17" spans="6:22">
+      <c r="F17" s="11">
         <v>0.08</v>
       </c>
       <c r="G17" s="4">
@@ -32440,13 +32610,32 @@
         <f>ROUND($G$3/G17,2)</f>
         <v>108.7</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <f>H17/$G$5</f>
         <v>1.087</v>
       </c>
-    </row>
-    <row r="18" spans="6:9">
-      <c r="F18" s="12">
+      <c r="R17" s="4">
+        <v>-43</v>
+      </c>
+      <c r="S17" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.720670391061452</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="1"/>
+        <v>17.2067039106145</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="2"/>
+        <v>58.12</v>
+      </c>
+      <c r="V17" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5812</v>
+      </c>
+    </row>
+    <row r="18" spans="6:22">
+      <c r="F18" s="11">
         <v>0.09</v>
       </c>
       <c r="G18" s="4">
@@ -32457,30 +32646,68 @@
         <f>ROUND($G$3/G18,2)</f>
         <v>109.89</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="14">
         <f>H18/$G$5</f>
         <v>1.0989</v>
       </c>
-    </row>
-    <row r="19" spans="6:9">
-      <c r="F19" s="13">
+      <c r="R18" s="4">
+        <v>-42</v>
+      </c>
+      <c r="S18" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.715909090909091</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="1"/>
+        <v>17.1590909090909</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="2"/>
+        <v>58.28</v>
+      </c>
+      <c r="V18" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5828</v>
+      </c>
+    </row>
+    <row r="19" spans="6:22">
+      <c r="F19" s="12">
         <v>0.1</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <f>$G$4*(1-F19)</f>
         <v>9</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <f>ROUND($G$3/G19,2)</f>
         <v>111.11</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <f>H19/$G$5</f>
         <v>1.1111</v>
       </c>
-    </row>
-    <row r="20" spans="6:9">
-      <c r="F20" s="12">
+      <c r="R19" s="4">
+        <v>-41</v>
+      </c>
+      <c r="S19" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.710982658959538</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="1"/>
+        <v>17.1098265895954</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="2"/>
+        <v>58.45</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5845</v>
+      </c>
+    </row>
+    <row r="20" spans="6:22">
+      <c r="F20" s="11">
         <v>0.11</v>
       </c>
       <c r="G20" s="4">
@@ -32491,13 +32718,32 @@
         <f>ROUND($G$3/G20,2)</f>
         <v>112.36</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="14">
         <f>H20/$G$5</f>
         <v>1.1236</v>
       </c>
-    </row>
-    <row r="21" spans="6:9">
-      <c r="F21" s="12">
+      <c r="R20" s="4">
+        <v>-40</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.705882352941177</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="1"/>
+        <v>17.0588235294118</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="2"/>
+        <v>58.62</v>
+      </c>
+      <c r="V20" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5862</v>
+      </c>
+    </row>
+    <row r="21" spans="6:22">
+      <c r="F21" s="11">
         <v>0.12</v>
       </c>
       <c r="G21" s="4">
@@ -32508,13 +32754,32 @@
         <f>ROUND($G$3/G21,2)</f>
         <v>113.64</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <f>H21/$G$5</f>
         <v>1.1364</v>
       </c>
-    </row>
-    <row r="22" spans="6:9">
-      <c r="F22" s="12">
+      <c r="R21" s="4">
+        <v>-39</v>
+      </c>
+      <c r="S21" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.70059880239521</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="1"/>
+        <v>17.0059880239521</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="2"/>
+        <v>58.8</v>
+      </c>
+      <c r="V21" s="14">
+        <f t="shared" si="3"/>
+        <v>0.588</v>
+      </c>
+    </row>
+    <row r="22" spans="6:22">
+      <c r="F22" s="11">
         <v>0.13</v>
       </c>
       <c r="G22" s="4">
@@ -32525,13 +32790,32 @@
         <f>ROUND($G$3/G22,2)</f>
         <v>114.94</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="14">
         <f>H22/$G$5</f>
         <v>1.1494</v>
       </c>
-    </row>
-    <row r="23" spans="6:9">
-      <c r="F23" s="12">
+      <c r="R22" s="4">
+        <v>-38</v>
+      </c>
+      <c r="S22" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.695121951219512</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="1"/>
+        <v>16.9512195121951</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="2"/>
+        <v>58.99</v>
+      </c>
+      <c r="V22" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5899</v>
+      </c>
+    </row>
+    <row r="23" spans="6:22">
+      <c r="F23" s="11">
         <v>0.14</v>
       </c>
       <c r="G23" s="4">
@@ -32542,13 +32826,32 @@
         <f>ROUND($G$3/G23,2)</f>
         <v>116.28</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <f>H23/$G$5</f>
         <v>1.1628</v>
       </c>
-    </row>
-    <row r="24" spans="6:9">
-      <c r="F24" s="12">
+      <c r="R23" s="4">
+        <v>-37</v>
+      </c>
+      <c r="S23" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.68944099378882</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="1"/>
+        <v>16.8944099378882</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="2"/>
+        <v>59.19</v>
+      </c>
+      <c r="V23" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5919</v>
+      </c>
+    </row>
+    <row r="24" spans="6:22">
+      <c r="F24" s="11">
         <v>0.15</v>
       </c>
       <c r="G24" s="4">
@@ -32559,13 +32862,32 @@
         <f>ROUND($G$3/G24,2)</f>
         <v>117.65</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="14">
         <f>H24/$G$5</f>
         <v>1.1765</v>
       </c>
-    </row>
-    <row r="25" spans="6:9">
-      <c r="F25" s="12">
+      <c r="R24" s="4">
+        <v>-36</v>
+      </c>
+      <c r="S24" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.683544303797468</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="1"/>
+        <v>16.8354430379747</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="2"/>
+        <v>59.4</v>
+      </c>
+      <c r="V24" s="14">
+        <f t="shared" si="3"/>
+        <v>0.594</v>
+      </c>
+    </row>
+    <row r="25" spans="6:22">
+      <c r="F25" s="11">
         <v>0.16</v>
       </c>
       <c r="G25" s="4">
@@ -32576,13 +32898,32 @@
         <f>ROUND($G$3/G25,2)</f>
         <v>119.05</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="14">
         <f>H25/$G$5</f>
         <v>1.1905</v>
       </c>
-    </row>
-    <row r="26" spans="6:9">
-      <c r="F26" s="12">
+      <c r="R25" s="4">
+        <v>-35</v>
+      </c>
+      <c r="S25" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.67741935483871</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="1"/>
+        <v>16.7741935483871</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="2"/>
+        <v>59.62</v>
+      </c>
+      <c r="V25" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5962</v>
+      </c>
+    </row>
+    <row r="26" spans="6:22">
+      <c r="F26" s="11">
         <v>0.17</v>
       </c>
       <c r="G26" s="4">
@@ -32593,13 +32934,32 @@
         <f>ROUND($G$3/G26,2)</f>
         <v>120.48</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="14">
         <f>H26/$G$5</f>
         <v>1.2048</v>
       </c>
-    </row>
-    <row r="27" spans="6:9">
-      <c r="F27" s="12">
+      <c r="R26" s="4">
+        <v>-34</v>
+      </c>
+      <c r="S26" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.671052631578947</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="1"/>
+        <v>16.7105263157895</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="2"/>
+        <v>59.84</v>
+      </c>
+      <c r="V26" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5984</v>
+      </c>
+    </row>
+    <row r="27" spans="6:22">
+      <c r="F27" s="11">
         <v>0.18</v>
       </c>
       <c r="G27" s="4">
@@ -32610,13 +32970,32 @@
         <f>ROUND($G$3/G27,2)</f>
         <v>121.95</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="14">
         <f>H27/$G$5</f>
         <v>1.2195</v>
       </c>
-    </row>
-    <row r="28" spans="6:9">
-      <c r="F28" s="12">
+      <c r="R27" s="4">
+        <v>-33</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.664429530201342</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="1"/>
+        <v>16.6442953020134</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="2"/>
+        <v>60.08</v>
+      </c>
+      <c r="V27" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6008</v>
+      </c>
+    </row>
+    <row r="28" spans="6:22">
+      <c r="F28" s="11">
         <v>0.19</v>
       </c>
       <c r="G28" s="4">
@@ -32627,30 +33006,68 @@
         <f>ROUND($G$3/G28,2)</f>
         <v>123.46</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="14">
         <f>H28/$G$5</f>
         <v>1.2346</v>
       </c>
-    </row>
-    <row r="29" spans="6:9">
-      <c r="F29" s="13">
+      <c r="R28" s="4">
+        <v>-32</v>
+      </c>
+      <c r="S28" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.657534246575342</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="1"/>
+        <v>16.5753424657534</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="2"/>
+        <v>60.33</v>
+      </c>
+      <c r="V28" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6033</v>
+      </c>
+    </row>
+    <row r="29" spans="6:22">
+      <c r="F29" s="12">
         <v>0.2</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <f>$G$4*(1-F29)</f>
         <v>8</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <f>ROUND($G$3/G29,2)</f>
         <v>125</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="15">
         <f>H29/$G$5</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="30" spans="6:9">
-      <c r="F30" s="12">
+      <c r="R29" s="4">
+        <v>-31</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.65034965034965</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="1"/>
+        <v>16.5034965034965</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="2"/>
+        <v>60.59</v>
+      </c>
+      <c r="V29" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6059</v>
+      </c>
+    </row>
+    <row r="30" spans="6:22">
+      <c r="F30" s="11">
         <v>0.21</v>
       </c>
       <c r="G30" s="4">
@@ -32661,13 +33078,32 @@
         <f>ROUND($G$3/G30,2)</f>
         <v>126.58</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="14">
         <f>H30/$G$5</f>
         <v>1.2658</v>
       </c>
-    </row>
-    <row r="31" spans="6:9">
-      <c r="F31" s="12">
+      <c r="R30" s="4">
+        <v>-30</v>
+      </c>
+      <c r="S30" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.642857142857143</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="1"/>
+        <v>16.4285714285714</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="2"/>
+        <v>60.87</v>
+      </c>
+      <c r="V30" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6087</v>
+      </c>
+    </row>
+    <row r="31" spans="6:22">
+      <c r="F31" s="11">
         <v>0.22</v>
       </c>
       <c r="G31" s="4">
@@ -32678,13 +33114,32 @@
         <f>ROUND($G$3/G31,2)</f>
         <v>128.21</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="14">
         <f>H31/$G$5</f>
         <v>1.2821</v>
       </c>
-    </row>
-    <row r="32" spans="6:9">
-      <c r="F32" s="12">
+      <c r="R31" s="4">
+        <v>-29</v>
+      </c>
+      <c r="S31" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.635036496350365</v>
+      </c>
+      <c r="T31" s="4">
+        <f t="shared" si="1"/>
+        <v>16.3503649635037</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="2"/>
+        <v>61.16</v>
+      </c>
+      <c r="V31" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6116</v>
+      </c>
+    </row>
+    <row r="32" spans="6:22">
+      <c r="F32" s="11">
         <v>0.23</v>
       </c>
       <c r="G32" s="4">
@@ -32695,13 +33150,32 @@
         <f>ROUND($G$3/G32,2)</f>
         <v>129.87</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="14">
         <f>H32/$G$5</f>
         <v>1.2987</v>
       </c>
-    </row>
-    <row r="33" spans="6:9">
-      <c r="F33" s="12">
+      <c r="R32" s="4">
+        <v>-28</v>
+      </c>
+      <c r="S32" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.626865671641791</v>
+      </c>
+      <c r="T32" s="4">
+        <f t="shared" si="1"/>
+        <v>16.2686567164179</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="2"/>
+        <v>61.47</v>
+      </c>
+      <c r="V32" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6147</v>
+      </c>
+    </row>
+    <row r="33" spans="6:22">
+      <c r="F33" s="11">
         <v>0.24</v>
       </c>
       <c r="G33" s="4">
@@ -32712,13 +33186,32 @@
         <f>ROUND($G$3/G33,2)</f>
         <v>131.58</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="14">
         <f>H33/$G$5</f>
         <v>1.3158</v>
       </c>
-    </row>
-    <row r="34" spans="6:9">
-      <c r="F34" s="12">
+      <c r="R33" s="4">
+        <v>-27</v>
+      </c>
+      <c r="S33" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.618320610687023</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="1"/>
+        <v>16.1832061068702</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="2"/>
+        <v>61.79</v>
+      </c>
+      <c r="V33" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6179</v>
+      </c>
+    </row>
+    <row r="34" spans="6:22">
+      <c r="F34" s="11">
         <v>0.25</v>
       </c>
       <c r="G34" s="4">
@@ -32729,13 +33222,32 @@
         <f>ROUND($G$3/G34,2)</f>
         <v>133.33</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="14">
         <f>H34/$G$5</f>
         <v>1.3333</v>
       </c>
-    </row>
-    <row r="35" spans="6:9">
-      <c r="F35" s="12">
+      <c r="R34" s="4">
+        <v>-26</v>
+      </c>
+      <c r="S34" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.609375</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="1"/>
+        <v>16.09375</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="2"/>
+        <v>62.14</v>
+      </c>
+      <c r="V34" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6214</v>
+      </c>
+    </row>
+    <row r="35" spans="6:22">
+      <c r="F35" s="11">
         <v>0.26</v>
       </c>
       <c r="G35" s="4">
@@ -32746,13 +33258,32 @@
         <f>ROUND($G$3/G35,2)</f>
         <v>135.14</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="14">
         <f>H35/$G$5</f>
         <v>1.3514</v>
       </c>
-    </row>
-    <row r="36" spans="6:9">
-      <c r="F36" s="12">
+      <c r="R35" s="4">
+        <v>-25</v>
+      </c>
+      <c r="S35" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="V35" s="14">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="36" spans="6:22">
+      <c r="F36" s="11">
         <v>0.27</v>
       </c>
       <c r="G36" s="4">
@@ -32763,13 +33294,32 @@
         <f>ROUND($G$3/G36,2)</f>
         <v>136.99</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="14">
         <f>H36/$G$5</f>
         <v>1.3699</v>
       </c>
-    </row>
-    <row r="37" spans="6:9">
-      <c r="F37" s="12">
+      <c r="R36" s="4">
+        <v>-24</v>
+      </c>
+      <c r="S36" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.590163934426229</v>
+      </c>
+      <c r="T36" s="4">
+        <f t="shared" si="1"/>
+        <v>15.9016393442623</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="2"/>
+        <v>62.89</v>
+      </c>
+      <c r="V36" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6289</v>
+      </c>
+    </row>
+    <row r="37" spans="6:22">
+      <c r="F37" s="11">
         <v>0.28</v>
       </c>
       <c r="G37" s="4">
@@ -32780,13 +33330,32 @@
         <f>ROUND($G$3/G37,2)</f>
         <v>138.89</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="14">
         <f>H37/$G$5</f>
         <v>1.3889</v>
       </c>
-    </row>
-    <row r="38" spans="6:9">
-      <c r="F38" s="12">
+      <c r="R37" s="4">
+        <v>-23</v>
+      </c>
+      <c r="S37" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.579831932773109</v>
+      </c>
+      <c r="T37" s="4">
+        <f t="shared" si="1"/>
+        <v>15.7983193277311</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="2"/>
+        <v>63.3</v>
+      </c>
+      <c r="V37" s="14">
+        <f t="shared" si="3"/>
+        <v>0.633</v>
+      </c>
+    </row>
+    <row r="38" spans="6:22">
+      <c r="F38" s="11">
         <v>0.29</v>
       </c>
       <c r="G38" s="4">
@@ -32797,30 +33366,68 @@
         <f>ROUND($G$3/G38,2)</f>
         <v>140.85</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="14">
         <f>H38/$G$5</f>
         <v>1.4085</v>
       </c>
-    </row>
-    <row r="39" spans="6:9">
-      <c r="F39" s="13">
+      <c r="R38" s="4">
+        <v>-22</v>
+      </c>
+      <c r="S38" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.568965517241379</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="1"/>
+        <v>15.6896551724138</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="2"/>
+        <v>63.74</v>
+      </c>
+      <c r="V38" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6374</v>
+      </c>
+    </row>
+    <row r="39" spans="6:22">
+      <c r="F39" s="12">
         <v>0.3</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <f>$G$4*(1-F39)</f>
         <v>7</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <f>ROUND($G$3/G39,2)</f>
         <v>142.86</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="15">
         <f>H39/$G$5</f>
         <v>1.4286</v>
       </c>
-    </row>
-    <row r="40" spans="6:9">
-      <c r="F40" s="12">
+      <c r="R39" s="4">
+        <v>-21</v>
+      </c>
+      <c r="S39" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.557522123893805</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="1"/>
+        <v>15.5752212389381</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="2"/>
+        <v>64.2</v>
+      </c>
+      <c r="V39" s="14">
+        <f t="shared" si="3"/>
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="40" spans="6:22">
+      <c r="F40" s="11">
         <v>0.31</v>
       </c>
       <c r="G40" s="4">
@@ -32831,13 +33438,32 @@
         <f>ROUND($G$3/G40,2)</f>
         <v>144.93</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="14">
         <f>H40/$G$5</f>
         <v>1.4493</v>
       </c>
-    </row>
-    <row r="41" spans="6:9">
-      <c r="F41" s="12">
+      <c r="R40" s="4">
+        <v>-20</v>
+      </c>
+      <c r="S40" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.545454545454545</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="1"/>
+        <v>15.4545454545455</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="2"/>
+        <v>64.71</v>
+      </c>
+      <c r="V40" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6471</v>
+      </c>
+    </row>
+    <row r="41" spans="6:22">
+      <c r="F41" s="11">
         <v>0.32</v>
       </c>
       <c r="G41" s="4">
@@ -32848,13 +33474,32 @@
         <f>ROUND($G$3/G41,2)</f>
         <v>147.06</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="14">
         <f>H41/$G$5</f>
         <v>1.4706</v>
       </c>
-    </row>
-    <row r="42" spans="6:9">
-      <c r="F42" s="12">
+      <c r="R41" s="4">
+        <v>-19</v>
+      </c>
+      <c r="S41" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.532710280373832</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" si="1"/>
+        <v>15.3271028037383</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="2"/>
+        <v>65.24</v>
+      </c>
+      <c r="V41" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6524</v>
+      </c>
+    </row>
+    <row r="42" spans="6:22">
+      <c r="F42" s="11">
         <v>0.33</v>
       </c>
       <c r="G42" s="4">
@@ -32865,13 +33510,32 @@
         <f>ROUND($G$3/G42,2)</f>
         <v>149.25</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="14">
         <f>H42/$G$5</f>
         <v>1.4925</v>
       </c>
-    </row>
-    <row r="43" spans="6:9">
-      <c r="F43" s="12">
+      <c r="R42" s="4">
+        <v>-18</v>
+      </c>
+      <c r="S42" s="16">
+        <f t="shared" ref="S42:S58" si="4">-0.06*ABS(R42)/(1+0.06*ABS(R42))</f>
+        <v>-0.519230769230769</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" si="1"/>
+        <v>15.1923076923077</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="2"/>
+        <v>65.82</v>
+      </c>
+      <c r="V42" s="14">
+        <f t="shared" si="3"/>
+        <v>0.6582</v>
+      </c>
+    </row>
+    <row r="43" spans="6:22">
+      <c r="F43" s="11">
         <v>0.34</v>
       </c>
       <c r="G43" s="4">
@@ -32882,13 +33546,32 @@
         <f>ROUND($G$3/G43,2)</f>
         <v>151.52</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="14">
         <f>H43/$G$5</f>
         <v>1.5152</v>
       </c>
-    </row>
-    <row r="44" spans="6:9">
-      <c r="F44" s="12">
+      <c r="R43" s="4">
+        <v>-17</v>
+      </c>
+      <c r="S43" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.504950495049505</v>
+      </c>
+      <c r="T43" s="4">
+        <f t="shared" ref="T43:T74" si="5">$G$4*(1-S43)</f>
+        <v>15.049504950495</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" ref="U43:U74" si="6">ROUND($G$3/T43,2)</f>
+        <v>66.45</v>
+      </c>
+      <c r="V43" s="14">
+        <f t="shared" ref="V43:V74" si="7">U43/$G$5</f>
+        <v>0.6645</v>
+      </c>
+    </row>
+    <row r="44" spans="6:22">
+      <c r="F44" s="11">
         <v>0.35</v>
       </c>
       <c r="G44" s="4">
@@ -32899,13 +33582,32 @@
         <f>ROUND($G$3/G44,2)</f>
         <v>153.85</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="14">
         <f>H44/$G$5</f>
         <v>1.5385</v>
       </c>
-    </row>
-    <row r="45" spans="6:9">
-      <c r="F45" s="12">
+      <c r="R44" s="4">
+        <v>-16</v>
+      </c>
+      <c r="S44" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.489795918367347</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="5"/>
+        <v>14.8979591836735</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="6"/>
+        <v>67.12</v>
+      </c>
+      <c r="V44" s="14">
+        <f t="shared" si="7"/>
+        <v>0.6712</v>
+      </c>
+    </row>
+    <row r="45" spans="6:22">
+      <c r="F45" s="11">
         <v>0.36</v>
       </c>
       <c r="G45" s="4">
@@ -32916,13 +33618,32 @@
         <f>ROUND($G$3/G45,2)</f>
         <v>156.25</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="14">
         <f>H45/$G$5</f>
         <v>1.5625</v>
       </c>
-    </row>
-    <row r="46" spans="6:9">
-      <c r="F46" s="12">
+      <c r="R45" s="4">
+        <v>-15</v>
+      </c>
+      <c r="S45" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.473684210526316</v>
+      </c>
+      <c r="T45" s="4">
+        <f t="shared" si="5"/>
+        <v>14.7368421052632</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="6"/>
+        <v>67.86</v>
+      </c>
+      <c r="V45" s="14">
+        <f t="shared" si="7"/>
+        <v>0.6786</v>
+      </c>
+    </row>
+    <row r="46" spans="6:22">
+      <c r="F46" s="11">
         <v>0.37</v>
       </c>
       <c r="G46" s="4">
@@ -32933,13 +33654,32 @@
         <f>ROUND($G$3/G46,2)</f>
         <v>158.73</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="14">
         <f>H46/$G$5</f>
         <v>1.5873</v>
       </c>
-    </row>
-    <row r="47" spans="6:9">
-      <c r="F47" s="12">
+      <c r="R46" s="4">
+        <v>-14</v>
+      </c>
+      <c r="S46" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.456521739130435</v>
+      </c>
+      <c r="T46" s="4">
+        <f t="shared" si="5"/>
+        <v>14.5652173913043</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="6"/>
+        <v>68.66</v>
+      </c>
+      <c r="V46" s="14">
+        <f t="shared" si="7"/>
+        <v>0.6866</v>
+      </c>
+    </row>
+    <row r="47" spans="6:22">
+      <c r="F47" s="11">
         <v>0.38</v>
       </c>
       <c r="G47" s="4">
@@ -32950,13 +33690,32 @@
         <f>ROUND($G$3/G47,2)</f>
         <v>161.29</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="14">
         <f>H47/$G$5</f>
         <v>1.6129</v>
       </c>
-    </row>
-    <row r="48" spans="6:9">
-      <c r="F48" s="12">
+      <c r="R47" s="4">
+        <v>-13</v>
+      </c>
+      <c r="S47" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.438202247191011</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="5"/>
+        <v>14.3820224719101</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="6"/>
+        <v>69.53</v>
+      </c>
+      <c r="V47" s="14">
+        <f t="shared" si="7"/>
+        <v>0.6953</v>
+      </c>
+    </row>
+    <row r="48" spans="6:22">
+      <c r="F48" s="11">
         <v>0.39</v>
       </c>
       <c r="G48" s="4">
@@ -32967,30 +33726,68 @@
         <f>ROUND($G$3/G48,2)</f>
         <v>163.93</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="14">
         <f>H48/$G$5</f>
         <v>1.6393</v>
       </c>
-    </row>
-    <row r="49" spans="6:9">
-      <c r="F49" s="13">
+      <c r="R48" s="4">
+        <v>-12</v>
+      </c>
+      <c r="S48" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.418604651162791</v>
+      </c>
+      <c r="T48" s="4">
+        <f t="shared" si="5"/>
+        <v>14.1860465116279</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="6"/>
+        <v>70.49</v>
+      </c>
+      <c r="V48" s="14">
+        <f t="shared" si="7"/>
+        <v>0.7049</v>
+      </c>
+    </row>
+    <row r="49" spans="6:22">
+      <c r="F49" s="12">
         <v>0.4</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="13">
         <f>$G$4*(1-F49)</f>
         <v>6</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <f>ROUND($G$3/G49,2)</f>
         <v>166.67</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="15">
         <f>H49/$G$5</f>
         <v>1.6667</v>
       </c>
-    </row>
-    <row r="50" spans="6:9">
-      <c r="F50" s="12">
+      <c r="R49" s="4">
+        <v>-11</v>
+      </c>
+      <c r="S49" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.397590361445783</v>
+      </c>
+      <c r="T49" s="4">
+        <f t="shared" si="5"/>
+        <v>13.9759036144578</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="6"/>
+        <v>71.55</v>
+      </c>
+      <c r="V49" s="14">
+        <f t="shared" si="7"/>
+        <v>0.7155</v>
+      </c>
+    </row>
+    <row r="50" spans="6:22">
+      <c r="F50" s="11">
         <v>0.41</v>
       </c>
       <c r="G50" s="4">
@@ -33001,13 +33798,32 @@
         <f>ROUND($G$3/G50,2)</f>
         <v>169.49</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="14">
         <f>H50/$G$5</f>
         <v>1.6949</v>
       </c>
-    </row>
-    <row r="51" spans="6:9">
-      <c r="F51" s="12">
+      <c r="R50" s="4">
+        <v>-10</v>
+      </c>
+      <c r="S50" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.375</v>
+      </c>
+      <c r="T50" s="4">
+        <f t="shared" si="5"/>
+        <v>13.75</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="6"/>
+        <v>72.73</v>
+      </c>
+      <c r="V50" s="14">
+        <f t="shared" si="7"/>
+        <v>0.7273</v>
+      </c>
+    </row>
+    <row r="51" spans="6:22">
+      <c r="F51" s="11">
         <v>0.42</v>
       </c>
       <c r="G51" s="4">
@@ -33018,13 +33834,32 @@
         <f>ROUND($G$3/G51,2)</f>
         <v>172.41</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="14">
         <f>H51/$G$5</f>
         <v>1.7241</v>
       </c>
-    </row>
-    <row r="52" spans="6:9">
-      <c r="F52" s="12">
+      <c r="R51" s="4">
+        <v>-9</v>
+      </c>
+      <c r="S51" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.350649350649351</v>
+      </c>
+      <c r="T51" s="4">
+        <f t="shared" si="5"/>
+        <v>13.5064935064935</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="6"/>
+        <v>74.04</v>
+      </c>
+      <c r="V51" s="14">
+        <f t="shared" si="7"/>
+        <v>0.7404</v>
+      </c>
+    </row>
+    <row r="52" spans="6:22">
+      <c r="F52" s="11">
         <v>0.43</v>
       </c>
       <c r="G52" s="4">
@@ -33035,13 +33870,32 @@
         <f>ROUND($G$3/G52,2)</f>
         <v>175.44</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="14">
         <f>H52/$G$5</f>
         <v>1.7544</v>
       </c>
-    </row>
-    <row r="53" spans="6:9">
-      <c r="F53" s="12">
+      <c r="R52" s="4">
+        <v>-8</v>
+      </c>
+      <c r="S52" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.324324324324324</v>
+      </c>
+      <c r="T52" s="4">
+        <f t="shared" si="5"/>
+        <v>13.2432432432432</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="6"/>
+        <v>75.51</v>
+      </c>
+      <c r="V52" s="14">
+        <f t="shared" si="7"/>
+        <v>0.7551</v>
+      </c>
+    </row>
+    <row r="53" spans="6:22">
+      <c r="F53" s="11">
         <v>0.44</v>
       </c>
       <c r="G53" s="4">
@@ -33052,13 +33906,32 @@
         <f>ROUND($G$3/G53,2)</f>
         <v>178.57</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="14">
         <f>H53/$G$5</f>
         <v>1.7857</v>
       </c>
-    </row>
-    <row r="54" spans="6:9">
-      <c r="F54" s="12">
+      <c r="R53" s="4">
+        <v>-7</v>
+      </c>
+      <c r="S53" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.295774647887324</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="5"/>
+        <v>12.9577464788732</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="6"/>
+        <v>77.17</v>
+      </c>
+      <c r="V53" s="14">
+        <f t="shared" si="7"/>
+        <v>0.7717</v>
+      </c>
+    </row>
+    <row r="54" spans="6:22">
+      <c r="F54" s="11">
         <v>0.45</v>
       </c>
       <c r="G54" s="4">
@@ -33069,13 +33942,32 @@
         <f>ROUND($G$3/G54,2)</f>
         <v>181.82</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="14">
         <f>H54/$G$5</f>
         <v>1.8182</v>
       </c>
-    </row>
-    <row r="55" spans="6:9">
-      <c r="F55" s="12">
+      <c r="R54" s="4">
+        <v>-6</v>
+      </c>
+      <c r="S54" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.264705882352941</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" si="5"/>
+        <v>12.6470588235294</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="6"/>
+        <v>79.07</v>
+      </c>
+      <c r="V54" s="14">
+        <f t="shared" si="7"/>
+        <v>0.7907</v>
+      </c>
+    </row>
+    <row r="55" spans="6:22">
+      <c r="F55" s="11">
         <v>0.46</v>
       </c>
       <c r="G55" s="4">
@@ -33086,13 +33978,32 @@
         <f>ROUND($G$3/G55,2)</f>
         <v>185.19</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="14">
         <f>H55/$G$5</f>
         <v>1.8519</v>
       </c>
-    </row>
-    <row r="56" spans="6:9">
-      <c r="F56" s="12">
+      <c r="R55" s="4">
+        <v>-5</v>
+      </c>
+      <c r="S55" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.230769230769231</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="5"/>
+        <v>12.3076923076923</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="6"/>
+        <v>81.25</v>
+      </c>
+      <c r="V55" s="14">
+        <f t="shared" si="7"/>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="56" spans="6:22">
+      <c r="F56" s="11">
         <v>0.47</v>
       </c>
       <c r="G56" s="4">
@@ -33103,13 +34014,32 @@
         <f>ROUND($G$3/G56,2)</f>
         <v>188.68</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="14">
         <f>H56/$G$5</f>
         <v>1.8868</v>
       </c>
-    </row>
-    <row r="57" spans="6:9">
-      <c r="F57" s="12">
+      <c r="R56" s="4">
+        <v>-4</v>
+      </c>
+      <c r="S56" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.193548387096774</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" si="5"/>
+        <v>11.9354838709677</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="6"/>
+        <v>83.78</v>
+      </c>
+      <c r="V56" s="14">
+        <f t="shared" si="7"/>
+        <v>0.8378</v>
+      </c>
+    </row>
+    <row r="57" spans="6:22">
+      <c r="F57" s="11">
         <v>0.48</v>
       </c>
       <c r="G57" s="4">
@@ -33120,13 +34050,32 @@
         <f>ROUND($G$3/G57,2)</f>
         <v>192.31</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="14">
         <f>H57/$G$5</f>
         <v>1.9231</v>
       </c>
-    </row>
-    <row r="58" spans="6:9">
-      <c r="F58" s="12">
+      <c r="R57" s="4">
+        <v>-3</v>
+      </c>
+      <c r="S57" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.152542372881356</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" si="5"/>
+        <v>11.5254237288136</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="6"/>
+        <v>86.76</v>
+      </c>
+      <c r="V57" s="14">
+        <f t="shared" si="7"/>
+        <v>0.8676</v>
+      </c>
+    </row>
+    <row r="58" spans="6:22">
+      <c r="F58" s="11">
         <v>0.49</v>
       </c>
       <c r="G58" s="4">
@@ -33137,30 +34086,68 @@
         <f>ROUND($G$3/G58,2)</f>
         <v>196.08</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="14">
         <f>H58/$G$5</f>
         <v>1.9608</v>
       </c>
-    </row>
-    <row r="59" spans="6:9">
-      <c r="F59" s="13">
+      <c r="R58" s="4">
+        <v>-2</v>
+      </c>
+      <c r="S58" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.107142857142857</v>
+      </c>
+      <c r="T58" s="4">
+        <f t="shared" si="5"/>
+        <v>11.0714285714286</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="6"/>
+        <v>90.32</v>
+      </c>
+      <c r="V58" s="14">
+        <f t="shared" si="7"/>
+        <v>0.9032</v>
+      </c>
+    </row>
+    <row r="59" spans="6:22">
+      <c r="F59" s="12">
         <v>0.5</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="13">
         <f>$G$4*(1-F59)</f>
         <v>5</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <f>ROUND($G$3/G59,2)</f>
         <v>200</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="15">
         <f>H59/$G$5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="6:9">
-      <c r="F60" s="12">
+      <c r="R59" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S59" s="16">
+        <f>-0.06*ABS(R59)/(1+0.06*ABS(R59))</f>
+        <v>-0.0566037735849057</v>
+      </c>
+      <c r="T59" s="4">
+        <f t="shared" si="5"/>
+        <v>10.5660377358491</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="6"/>
+        <v>94.64</v>
+      </c>
+      <c r="V59" s="14">
+        <f t="shared" si="7"/>
+        <v>0.9464</v>
+      </c>
+    </row>
+    <row r="60" spans="6:22">
+      <c r="F60" s="11">
         <v>0.51</v>
       </c>
       <c r="G60" s="4">
@@ -33171,13 +34158,32 @@
         <f>ROUND($G$3/G60,2)</f>
         <v>204.08</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="14">
         <f>H60/$G$5</f>
         <v>2.0408</v>
       </c>
-    </row>
-    <row r="61" spans="6:9">
-      <c r="F61" s="12">
+      <c r="R60" s="4">
+        <v>0</v>
+      </c>
+      <c r="S60" s="16">
+        <f>0.06*R60/(1+0.06*R60)</f>
+        <v>0</v>
+      </c>
+      <c r="T60" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="V60" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:22">
+      <c r="F61" s="11">
         <v>0.52</v>
       </c>
       <c r="G61" s="4">
@@ -33188,13 +34194,32 @@
         <f>ROUND($G$3/G61,2)</f>
         <v>208.33</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="14">
         <f>H61/$G$5</f>
         <v>2.0833</v>
       </c>
-    </row>
-    <row r="62" spans="6:9">
-      <c r="F62" s="12">
+      <c r="R61" s="4">
+        <v>1</v>
+      </c>
+      <c r="S61" s="16">
+        <f>0.06*R61/(1+0.06*R61)</f>
+        <v>0.0566037735849057</v>
+      </c>
+      <c r="T61" s="4">
+        <f t="shared" si="5"/>
+        <v>9.43396226415094</v>
+      </c>
+      <c r="U61" s="4">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="V61" s="14">
+        <f t="shared" si="7"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="62" spans="6:22">
+      <c r="F62" s="11">
         <v>0.53</v>
       </c>
       <c r="G62" s="4">
@@ -33205,13 +34230,32 @@
         <f>ROUND($G$3/G62,2)</f>
         <v>212.77</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="14">
         <f>H62/$G$5</f>
         <v>2.1277</v>
       </c>
-    </row>
-    <row r="63" spans="6:9">
-      <c r="F63" s="12">
+      <c r="R62" s="4">
+        <v>2</v>
+      </c>
+      <c r="S62" s="16">
+        <f t="shared" ref="S62:S109" si="8">0.06*R62/(1+0.06*R62)</f>
+        <v>0.107142857142857</v>
+      </c>
+      <c r="T62" s="4">
+        <f t="shared" si="5"/>
+        <v>8.92857142857143</v>
+      </c>
+      <c r="U62" s="4">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="V62" s="14">
+        <f t="shared" si="7"/>
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="63" spans="6:22">
+      <c r="F63" s="11">
         <v>0.54</v>
       </c>
       <c r="G63" s="4">
@@ -33222,13 +34266,32 @@
         <f>ROUND($G$3/G63,2)</f>
         <v>217.39</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="14">
         <f>H63/$G$5</f>
         <v>2.1739</v>
       </c>
-    </row>
-    <row r="64" spans="6:9">
-      <c r="F64" s="12">
+      <c r="R63" s="4">
+        <v>3</v>
+      </c>
+      <c r="S63" s="16">
+        <f t="shared" si="8"/>
+        <v>0.152542372881356</v>
+      </c>
+      <c r="T63" s="4">
+        <f t="shared" si="5"/>
+        <v>8.47457627118644</v>
+      </c>
+      <c r="U63" s="4">
+        <f t="shared" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="V63" s="14">
+        <f t="shared" si="7"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="64" spans="6:22">
+      <c r="F64" s="11">
         <v>0.55</v>
       </c>
       <c r="G64" s="4">
@@ -33239,13 +34302,32 @@
         <f>ROUND($G$3/G64,2)</f>
         <v>222.22</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="14">
         <f>H64/$G$5</f>
         <v>2.2222</v>
       </c>
-    </row>
-    <row r="65" spans="6:9">
-      <c r="F65" s="12">
+      <c r="R64" s="4">
+        <v>4</v>
+      </c>
+      <c r="S64" s="16">
+        <f t="shared" si="8"/>
+        <v>0.193548387096774</v>
+      </c>
+      <c r="T64" s="4">
+        <f t="shared" si="5"/>
+        <v>8.06451612903226</v>
+      </c>
+      <c r="U64" s="4">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="V64" s="14">
+        <f t="shared" si="7"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="65" spans="6:22">
+      <c r="F65" s="11">
         <v>0.56</v>
       </c>
       <c r="G65" s="4">
@@ -33256,13 +34338,32 @@
         <f>ROUND($G$3/G65,2)</f>
         <v>227.27</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="14">
         <f>H65/$G$5</f>
         <v>2.2727</v>
       </c>
-    </row>
-    <row r="66" spans="6:9">
-      <c r="F66" s="12">
+      <c r="R65" s="4">
+        <v>5</v>
+      </c>
+      <c r="S65" s="16">
+        <f t="shared" si="8"/>
+        <v>0.230769230769231</v>
+      </c>
+      <c r="T65" s="4">
+        <f t="shared" si="5"/>
+        <v>7.69230769230769</v>
+      </c>
+      <c r="U65" s="4">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="V65" s="14">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="66" spans="6:22">
+      <c r="F66" s="11">
         <v>0.57</v>
       </c>
       <c r="G66" s="4">
@@ -33273,13 +34374,32 @@
         <f>ROUND($G$3/G66,2)</f>
         <v>232.56</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="14">
         <f>H66/$G$5</f>
         <v>2.3256</v>
       </c>
-    </row>
-    <row r="67" spans="6:9">
-      <c r="F67" s="12">
+      <c r="R66" s="4">
+        <v>6</v>
+      </c>
+      <c r="S66" s="16">
+        <f t="shared" si="8"/>
+        <v>0.264705882352941</v>
+      </c>
+      <c r="T66" s="4">
+        <f t="shared" si="5"/>
+        <v>7.35294117647059</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="V66" s="14">
+        <f t="shared" si="7"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="67" spans="6:22">
+      <c r="F67" s="11">
         <v>0.58</v>
       </c>
       <c r="G67" s="4">
@@ -33290,13 +34410,32 @@
         <f>ROUND($G$3/G67,2)</f>
         <v>238.1</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="14">
         <f>H67/$G$5</f>
         <v>2.381</v>
       </c>
-    </row>
-    <row r="68" spans="6:9">
-      <c r="F68" s="12">
+      <c r="R67" s="4">
+        <v>7</v>
+      </c>
+      <c r="S67" s="16">
+        <f t="shared" si="8"/>
+        <v>0.295774647887324</v>
+      </c>
+      <c r="T67" s="4">
+        <f t="shared" si="5"/>
+        <v>7.04225352112676</v>
+      </c>
+      <c r="U67" s="4">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="V67" s="14">
+        <f t="shared" si="7"/>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="68" spans="6:22">
+      <c r="F68" s="11">
         <v>0.59</v>
       </c>
       <c r="G68" s="4">
@@ -33307,30 +34446,68 @@
         <f>ROUND($G$3/G68,2)</f>
         <v>243.9</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="14">
         <f>H68/$G$5</f>
         <v>2.439</v>
       </c>
-    </row>
-    <row r="69" spans="6:9">
-      <c r="F69" s="13">
+      <c r="R68" s="4">
+        <v>8</v>
+      </c>
+      <c r="S68" s="16">
+        <f t="shared" si="8"/>
+        <v>0.324324324324324</v>
+      </c>
+      <c r="T68" s="4">
+        <f t="shared" si="5"/>
+        <v>6.75675675675676</v>
+      </c>
+      <c r="U68" s="4">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="V68" s="14">
+        <f t="shared" si="7"/>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="69" spans="6:22">
+      <c r="F69" s="12">
         <v>0.6</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="13">
         <f>$G$4*(1-F69)</f>
         <v>4</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="13">
         <f>ROUND($G$3/G69,2)</f>
         <v>250</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="15">
         <f>H69/$G$5</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="70" spans="6:9">
-      <c r="F70" s="12">
+      <c r="R69" s="4">
+        <v>9</v>
+      </c>
+      <c r="S69" s="16">
+        <f t="shared" si="8"/>
+        <v>0.350649350649351</v>
+      </c>
+      <c r="T69" s="4">
+        <f t="shared" si="5"/>
+        <v>6.49350649350649</v>
+      </c>
+      <c r="U69" s="4">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="V69" s="14">
+        <f t="shared" si="7"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="70" spans="6:22">
+      <c r="F70" s="11">
         <v>0.61</v>
       </c>
       <c r="G70" s="4">
@@ -33341,13 +34518,32 @@
         <f>ROUND($G$3/G70,2)</f>
         <v>256.41</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="14">
         <f>H70/$G$5</f>
         <v>2.5641</v>
       </c>
-    </row>
-    <row r="71" spans="6:9">
-      <c r="F71" s="12">
+      <c r="R70" s="4">
+        <v>10</v>
+      </c>
+      <c r="S70" s="16">
+        <f t="shared" si="8"/>
+        <v>0.375</v>
+      </c>
+      <c r="T70" s="4">
+        <f t="shared" si="5"/>
+        <v>6.25</v>
+      </c>
+      <c r="U70" s="4">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="V70" s="14">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="71" spans="6:22">
+      <c r="F71" s="11">
         <v>0.62</v>
       </c>
       <c r="G71" s="4">
@@ -33358,13 +34554,32 @@
         <f>ROUND($G$3/G71,2)</f>
         <v>263.16</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="14">
         <f>H71/$G$5</f>
         <v>2.6316</v>
       </c>
-    </row>
-    <row r="72" spans="6:9">
-      <c r="F72" s="12">
+      <c r="R71" s="4">
+        <v>11</v>
+      </c>
+      <c r="S71" s="16">
+        <f t="shared" si="8"/>
+        <v>0.397590361445783</v>
+      </c>
+      <c r="T71" s="4">
+        <f t="shared" si="5"/>
+        <v>6.02409638554217</v>
+      </c>
+      <c r="U71" s="4">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="V71" s="14">
+        <f t="shared" si="7"/>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="72" spans="6:22">
+      <c r="F72" s="11">
         <v>0.63</v>
       </c>
       <c r="G72" s="4">
@@ -33375,13 +34590,32 @@
         <f>ROUND($G$3/G72,2)</f>
         <v>270.27</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="14">
         <f>H72/$G$5</f>
         <v>2.7027</v>
       </c>
-    </row>
-    <row r="73" spans="6:9">
-      <c r="F73" s="12">
+      <c r="R72" s="4">
+        <v>12</v>
+      </c>
+      <c r="S72" s="16">
+        <f t="shared" si="8"/>
+        <v>0.418604651162791</v>
+      </c>
+      <c r="T72" s="4">
+        <f t="shared" si="5"/>
+        <v>5.81395348837209</v>
+      </c>
+      <c r="U72" s="4">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="V72" s="14">
+        <f t="shared" si="7"/>
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="73" spans="6:22">
+      <c r="F73" s="11">
         <v>0.64</v>
       </c>
       <c r="G73" s="4">
@@ -33392,13 +34626,32 @@
         <f>ROUND($G$3/G73,2)</f>
         <v>277.78</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="14">
         <f>H73/$G$5</f>
         <v>2.7778</v>
       </c>
-    </row>
-    <row r="74" spans="6:9">
-      <c r="F74" s="12">
+      <c r="R73" s="4">
+        <v>13</v>
+      </c>
+      <c r="S73" s="16">
+        <f t="shared" si="8"/>
+        <v>0.438202247191011</v>
+      </c>
+      <c r="T73" s="4">
+        <f t="shared" si="5"/>
+        <v>5.61797752808989</v>
+      </c>
+      <c r="U73" s="4">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="V73" s="14">
+        <f t="shared" si="7"/>
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="74" spans="6:22">
+      <c r="F74" s="11">
         <v>0.65</v>
       </c>
       <c r="G74" s="4">
@@ -33409,13 +34662,32 @@
         <f>ROUND($G$3/G74,2)</f>
         <v>285.71</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="14">
         <f>H74/$G$5</f>
         <v>2.8571</v>
       </c>
-    </row>
-    <row r="75" spans="6:9">
-      <c r="F75" s="12">
+      <c r="R74" s="4">
+        <v>14</v>
+      </c>
+      <c r="S74" s="16">
+        <f t="shared" si="8"/>
+        <v>0.456521739130435</v>
+      </c>
+      <c r="T74" s="4">
+        <f t="shared" si="5"/>
+        <v>5.43478260869565</v>
+      </c>
+      <c r="U74" s="4">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="V74" s="14">
+        <f t="shared" si="7"/>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="75" spans="6:22">
+      <c r="F75" s="11">
         <v>0.66</v>
       </c>
       <c r="G75" s="4">
@@ -33426,13 +34698,32 @@
         <f>ROUND($G$3/G75,2)</f>
         <v>294.12</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="14">
         <f>H75/$G$5</f>
         <v>2.9412</v>
       </c>
-    </row>
-    <row r="76" spans="6:9">
-      <c r="F76" s="12">
+      <c r="R75" s="4">
+        <v>15</v>
+      </c>
+      <c r="S75" s="16">
+        <f t="shared" si="8"/>
+        <v>0.473684210526316</v>
+      </c>
+      <c r="T75" s="4">
+        <f t="shared" ref="T75:T106" si="9">$G$4*(1-S75)</f>
+        <v>5.26315789473684</v>
+      </c>
+      <c r="U75" s="4">
+        <f t="shared" ref="U75:U106" si="10">ROUND($G$3/T75,2)</f>
+        <v>190</v>
+      </c>
+      <c r="V75" s="14">
+        <f t="shared" ref="V75:V106" si="11">U75/$G$5</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="76" spans="6:22">
+      <c r="F76" s="11">
         <v>0.67</v>
       </c>
       <c r="G76" s="4">
@@ -33443,13 +34734,32 @@
         <f>ROUND($G$3/G76,2)</f>
         <v>303.03</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="14">
         <f>H76/$G$5</f>
         <v>3.0303</v>
       </c>
-    </row>
-    <row r="77" spans="6:9">
-      <c r="F77" s="12">
+      <c r="R76" s="4">
+        <v>16</v>
+      </c>
+      <c r="S76" s="16">
+        <f t="shared" si="8"/>
+        <v>0.489795918367347</v>
+      </c>
+      <c r="T76" s="4">
+        <f t="shared" si="9"/>
+        <v>5.10204081632653</v>
+      </c>
+      <c r="U76" s="4">
+        <f t="shared" si="10"/>
+        <v>196</v>
+      </c>
+      <c r="V76" s="14">
+        <f t="shared" si="11"/>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="77" spans="6:22">
+      <c r="F77" s="11">
         <v>0.68</v>
       </c>
       <c r="G77" s="4">
@@ -33460,13 +34770,32 @@
         <f>ROUND($G$3/G77,2)</f>
         <v>312.5</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="14">
         <f>H77/$G$5</f>
         <v>3.125</v>
       </c>
-    </row>
-    <row r="78" spans="6:9">
-      <c r="F78" s="12">
+      <c r="R77" s="4">
+        <v>17</v>
+      </c>
+      <c r="S77" s="16">
+        <f t="shared" si="8"/>
+        <v>0.504950495049505</v>
+      </c>
+      <c r="T77" s="4">
+        <f t="shared" si="9"/>
+        <v>4.95049504950495</v>
+      </c>
+      <c r="U77" s="4">
+        <f t="shared" si="10"/>
+        <v>202</v>
+      </c>
+      <c r="V77" s="14">
+        <f t="shared" si="11"/>
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="78" spans="6:22">
+      <c r="F78" s="11">
         <v>0.69</v>
       </c>
       <c r="G78" s="4">
@@ -33477,30 +34806,68 @@
         <f>ROUND($G$3/G78,2)</f>
         <v>322.58</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="14">
         <f>H78/$G$5</f>
         <v>3.2258</v>
       </c>
-    </row>
-    <row r="79" spans="6:9">
-      <c r="F79" s="13">
+      <c r="R78" s="4">
+        <v>18</v>
+      </c>
+      <c r="S78" s="16">
+        <f t="shared" si="8"/>
+        <v>0.519230769230769</v>
+      </c>
+      <c r="T78" s="4">
+        <f t="shared" si="9"/>
+        <v>4.80769230769231</v>
+      </c>
+      <c r="U78" s="4">
+        <f t="shared" si="10"/>
+        <v>208</v>
+      </c>
+      <c r="V78" s="14">
+        <f t="shared" si="11"/>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="79" spans="6:22">
+      <c r="F79" s="12">
         <v>0.7</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="13">
         <f>$G$4*(1-F79)</f>
         <v>3</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="13">
         <f>ROUND($G$3/G79,2)</f>
         <v>333.33</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I79" s="15">
         <f>H79/$G$5</f>
         <v>3.3333</v>
       </c>
-    </row>
-    <row r="80" spans="6:9">
-      <c r="F80" s="12">
+      <c r="R79" s="4">
+        <v>19</v>
+      </c>
+      <c r="S79" s="16">
+        <f t="shared" si="8"/>
+        <v>0.532710280373832</v>
+      </c>
+      <c r="T79" s="4">
+        <f t="shared" si="9"/>
+        <v>4.67289719626168</v>
+      </c>
+      <c r="U79" s="4">
+        <f t="shared" si="10"/>
+        <v>214</v>
+      </c>
+      <c r="V79" s="14">
+        <f t="shared" si="11"/>
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="80" spans="6:22">
+      <c r="F80" s="11">
         <v>0.71</v>
       </c>
       <c r="G80" s="4">
@@ -33511,13 +34878,32 @@
         <f>ROUND($G$3/G80,2)</f>
         <v>344.83</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="14">
         <f>H80/$G$5</f>
         <v>3.4483</v>
       </c>
-    </row>
-    <row r="81" spans="6:9">
-      <c r="F81" s="12">
+      <c r="R80" s="4">
+        <v>20</v>
+      </c>
+      <c r="S80" s="16">
+        <f t="shared" si="8"/>
+        <v>0.545454545454545</v>
+      </c>
+      <c r="T80" s="4">
+        <f t="shared" si="9"/>
+        <v>4.54545454545455</v>
+      </c>
+      <c r="U80" s="4">
+        <f t="shared" si="10"/>
+        <v>220</v>
+      </c>
+      <c r="V80" s="14">
+        <f t="shared" si="11"/>
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="81" spans="6:22">
+      <c r="F81" s="11">
         <v>0.72</v>
       </c>
       <c r="G81" s="4">
@@ -33528,13 +34914,32 @@
         <f>ROUND($G$3/G81,2)</f>
         <v>357.14</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I81" s="14">
         <f>H81/$G$5</f>
         <v>3.5714</v>
       </c>
-    </row>
-    <row r="82" spans="6:9">
-      <c r="F82" s="12">
+      <c r="R81" s="4">
+        <v>21</v>
+      </c>
+      <c r="S81" s="16">
+        <f t="shared" si="8"/>
+        <v>0.557522123893805</v>
+      </c>
+      <c r="T81" s="4">
+        <f t="shared" si="9"/>
+        <v>4.42477876106195</v>
+      </c>
+      <c r="U81" s="4">
+        <f t="shared" si="10"/>
+        <v>226</v>
+      </c>
+      <c r="V81" s="14">
+        <f t="shared" si="11"/>
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="82" spans="6:22">
+      <c r="F82" s="11">
         <v>0.73</v>
       </c>
       <c r="G82" s="4">
@@ -33545,13 +34950,32 @@
         <f>ROUND($G$3/G82,2)</f>
         <v>370.37</v>
       </c>
-      <c r="I82" s="15">
+      <c r="I82" s="14">
         <f>H82/$G$5</f>
         <v>3.7037</v>
       </c>
-    </row>
-    <row r="83" spans="6:9">
-      <c r="F83" s="12">
+      <c r="R82" s="4">
+        <v>22</v>
+      </c>
+      <c r="S82" s="16">
+        <f t="shared" si="8"/>
+        <v>0.568965517241379</v>
+      </c>
+      <c r="T82" s="4">
+        <f t="shared" si="9"/>
+        <v>4.31034482758621</v>
+      </c>
+      <c r="U82" s="4">
+        <f t="shared" si="10"/>
+        <v>232</v>
+      </c>
+      <c r="V82" s="14">
+        <f t="shared" si="11"/>
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="83" spans="6:22">
+      <c r="F83" s="11">
         <v>0.74</v>
       </c>
       <c r="G83" s="4">
@@ -33562,30 +34986,68 @@
         <f>ROUND($G$3/G83,2)</f>
         <v>384.62</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I83" s="14">
         <f>H83/$G$5</f>
         <v>3.8462</v>
       </c>
-    </row>
-    <row r="84" spans="6:9">
-      <c r="F84" s="13">
+      <c r="R83" s="4">
+        <v>23</v>
+      </c>
+      <c r="S83" s="16">
+        <f t="shared" si="8"/>
+        <v>0.579831932773109</v>
+      </c>
+      <c r="T83" s="4">
+        <f t="shared" si="9"/>
+        <v>4.20168067226891</v>
+      </c>
+      <c r="U83" s="4">
+        <f t="shared" si="10"/>
+        <v>238</v>
+      </c>
+      <c r="V83" s="14">
+        <f t="shared" si="11"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="84" spans="6:22">
+      <c r="F84" s="12">
         <v>0.75</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="13">
         <f>$G$4*(1-F84)</f>
         <v>2.5</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="13">
         <f>ROUND($G$3/G84,2)</f>
         <v>400</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I84" s="15">
         <f>H84/$G$5</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="6:9">
-      <c r="F85" s="12">
+      <c r="R84" s="4">
+        <v>24</v>
+      </c>
+      <c r="S84" s="16">
+        <f t="shared" si="8"/>
+        <v>0.590163934426229</v>
+      </c>
+      <c r="T84" s="4">
+        <f t="shared" si="9"/>
+        <v>4.09836065573771</v>
+      </c>
+      <c r="U84" s="4">
+        <f t="shared" si="10"/>
+        <v>244</v>
+      </c>
+      <c r="V84" s="14">
+        <f t="shared" si="11"/>
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="85" spans="6:22">
+      <c r="F85" s="11">
         <v>0.76</v>
       </c>
       <c r="G85" s="4">
@@ -33596,13 +35058,32 @@
         <f>ROUND($G$3/G85,2)</f>
         <v>416.67</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I85" s="14">
         <f>H85/$G$5</f>
         <v>4.1667</v>
       </c>
-    </row>
-    <row r="86" spans="6:9">
-      <c r="F86" s="12">
+      <c r="R85" s="4">
+        <v>25</v>
+      </c>
+      <c r="S85" s="16">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="T85" s="4">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="U85" s="4">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="V85" s="14">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="86" spans="6:22">
+      <c r="F86" s="11">
         <v>0.77</v>
       </c>
       <c r="G86" s="4">
@@ -33613,13 +35094,32 @@
         <f>ROUND($G$3/G86,2)</f>
         <v>434.78</v>
       </c>
-      <c r="I86" s="15">
+      <c r="I86" s="14">
         <f>H86/$G$5</f>
         <v>4.3478</v>
       </c>
-    </row>
-    <row r="87" spans="6:9">
-      <c r="F87" s="12">
+      <c r="R86" s="4">
+        <v>26</v>
+      </c>
+      <c r="S86" s="16">
+        <f t="shared" si="8"/>
+        <v>0.609375</v>
+      </c>
+      <c r="T86" s="4">
+        <f t="shared" si="9"/>
+        <v>3.90625</v>
+      </c>
+      <c r="U86" s="4">
+        <f t="shared" si="10"/>
+        <v>256</v>
+      </c>
+      <c r="V86" s="14">
+        <f t="shared" si="11"/>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="87" spans="6:22">
+      <c r="F87" s="11">
         <v>0.78</v>
       </c>
       <c r="G87" s="4">
@@ -33630,13 +35130,32 @@
         <f>ROUND($G$3/G87,2)</f>
         <v>454.55</v>
       </c>
-      <c r="I87" s="15">
+      <c r="I87" s="14">
         <f>H87/$G$5</f>
         <v>4.5455</v>
       </c>
-    </row>
-    <row r="88" spans="6:9">
-      <c r="F88" s="12">
+      <c r="R87" s="4">
+        <v>27</v>
+      </c>
+      <c r="S87" s="16">
+        <f t="shared" si="8"/>
+        <v>0.618320610687023</v>
+      </c>
+      <c r="T87" s="4">
+        <f t="shared" si="9"/>
+        <v>3.81679389312977</v>
+      </c>
+      <c r="U87" s="4">
+        <f t="shared" si="10"/>
+        <v>262</v>
+      </c>
+      <c r="V87" s="14">
+        <f t="shared" si="11"/>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="88" spans="6:22">
+      <c r="F88" s="11">
         <v>0.79</v>
       </c>
       <c r="G88" s="4">
@@ -33647,30 +35166,68 @@
         <f>ROUND($G$3/G88,2)</f>
         <v>476.19</v>
       </c>
-      <c r="I88" s="15">
+      <c r="I88" s="14">
         <f>H88/$G$5</f>
         <v>4.7619</v>
       </c>
-    </row>
-    <row r="89" spans="6:9">
-      <c r="F89" s="13">
+      <c r="R88" s="4">
+        <v>28</v>
+      </c>
+      <c r="S88" s="16">
+        <f t="shared" si="8"/>
+        <v>0.626865671641791</v>
+      </c>
+      <c r="T88" s="4">
+        <f t="shared" si="9"/>
+        <v>3.73134328358209</v>
+      </c>
+      <c r="U88" s="4">
+        <f t="shared" si="10"/>
+        <v>268</v>
+      </c>
+      <c r="V88" s="14">
+        <f t="shared" si="11"/>
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="89" spans="6:22">
+      <c r="F89" s="12">
         <v>0.8</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G89" s="13">
         <f>$G$4*(1-F89)</f>
         <v>2</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="13">
         <f>ROUND($G$3/G89,2)</f>
         <v>500</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I89" s="15">
         <f>H89/$G$5</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="6:9">
-      <c r="F90" s="12">
+      <c r="R89" s="4">
+        <v>29</v>
+      </c>
+      <c r="S89" s="16">
+        <f t="shared" si="8"/>
+        <v>0.635036496350365</v>
+      </c>
+      <c r="T89" s="4">
+        <f t="shared" si="9"/>
+        <v>3.64963503649635</v>
+      </c>
+      <c r="U89" s="4">
+        <f t="shared" si="10"/>
+        <v>274</v>
+      </c>
+      <c r="V89" s="14">
+        <f t="shared" si="11"/>
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="90" spans="6:22">
+      <c r="F90" s="11">
         <v>0.81</v>
       </c>
       <c r="G90" s="4">
@@ -33681,13 +35238,32 @@
         <f>ROUND($G$3/G90,2)</f>
         <v>526.32</v>
       </c>
-      <c r="I90" s="15">
+      <c r="I90" s="14">
         <f>H90/$G$5</f>
         <v>5.2632</v>
       </c>
-    </row>
-    <row r="91" spans="6:9">
-      <c r="F91" s="12">
+      <c r="R90" s="4">
+        <v>30</v>
+      </c>
+      <c r="S90" s="16">
+        <f t="shared" si="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="T90" s="4">
+        <f t="shared" si="9"/>
+        <v>3.57142857142857</v>
+      </c>
+      <c r="U90" s="4">
+        <f t="shared" si="10"/>
+        <v>280</v>
+      </c>
+      <c r="V90" s="14">
+        <f t="shared" si="11"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="91" spans="6:22">
+      <c r="F91" s="11">
         <v>0.82</v>
       </c>
       <c r="G91" s="4">
@@ -33698,13 +35274,32 @@
         <f>ROUND($G$3/G91,2)</f>
         <v>555.56</v>
       </c>
-      <c r="I91" s="15">
+      <c r="I91" s="14">
         <f>H91/$G$5</f>
         <v>5.5556</v>
       </c>
-    </row>
-    <row r="92" spans="6:9">
-      <c r="F92" s="12">
+      <c r="R91" s="4">
+        <v>31</v>
+      </c>
+      <c r="S91" s="16">
+        <f t="shared" si="8"/>
+        <v>0.65034965034965</v>
+      </c>
+      <c r="T91" s="4">
+        <f t="shared" si="9"/>
+        <v>3.4965034965035</v>
+      </c>
+      <c r="U91" s="4">
+        <f t="shared" si="10"/>
+        <v>286</v>
+      </c>
+      <c r="V91" s="14">
+        <f t="shared" si="11"/>
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="92" spans="6:22">
+      <c r="F92" s="11">
         <v>0.83</v>
       </c>
       <c r="G92" s="4">
@@ -33715,13 +35310,32 @@
         <f>ROUND($G$3/G92,2)</f>
         <v>588.24</v>
       </c>
-      <c r="I92" s="15">
+      <c r="I92" s="14">
         <f>H92/$G$5</f>
         <v>5.8824</v>
       </c>
-    </row>
-    <row r="93" spans="6:9">
-      <c r="F93" s="12">
+      <c r="R92" s="4">
+        <v>32</v>
+      </c>
+      <c r="S92" s="16">
+        <f t="shared" si="8"/>
+        <v>0.657534246575342</v>
+      </c>
+      <c r="T92" s="4">
+        <f t="shared" si="9"/>
+        <v>3.42465753424658</v>
+      </c>
+      <c r="U92" s="4">
+        <f t="shared" si="10"/>
+        <v>292</v>
+      </c>
+      <c r="V92" s="14">
+        <f t="shared" si="11"/>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="93" spans="6:22">
+      <c r="F93" s="11">
         <v>0.84</v>
       </c>
       <c r="G93" s="4">
@@ -33732,13 +35346,32 @@
         <f>ROUND($G$3/G93,2)</f>
         <v>625</v>
       </c>
-      <c r="I93" s="15">
+      <c r="I93" s="14">
         <f>H93/$G$5</f>
         <v>6.25</v>
       </c>
-    </row>
-    <row r="94" spans="6:9">
-      <c r="F94" s="12">
+      <c r="R93" s="4">
+        <v>33</v>
+      </c>
+      <c r="S93" s="16">
+        <f t="shared" si="8"/>
+        <v>0.664429530201342</v>
+      </c>
+      <c r="T93" s="4">
+        <f t="shared" si="9"/>
+        <v>3.35570469798658</v>
+      </c>
+      <c r="U93" s="4">
+        <f t="shared" si="10"/>
+        <v>298</v>
+      </c>
+      <c r="V93" s="14">
+        <f t="shared" si="11"/>
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="94" spans="6:22">
+      <c r="F94" s="11">
         <v>0.85</v>
       </c>
       <c r="G94" s="4">
@@ -33749,13 +35382,32 @@
         <f>ROUND($G$3/G94,2)</f>
         <v>666.67</v>
       </c>
-      <c r="I94" s="15">
+      <c r="I94" s="14">
         <f>H94/$G$5</f>
         <v>6.6667</v>
       </c>
-    </row>
-    <row r="95" spans="6:9">
-      <c r="F95" s="12">
+      <c r="R94" s="4">
+        <v>34</v>
+      </c>
+      <c r="S94" s="16">
+        <f t="shared" si="8"/>
+        <v>0.671052631578947</v>
+      </c>
+      <c r="T94" s="4">
+        <f t="shared" si="9"/>
+        <v>3.28947368421053</v>
+      </c>
+      <c r="U94" s="4">
+        <f t="shared" si="10"/>
+        <v>304</v>
+      </c>
+      <c r="V94" s="14">
+        <f t="shared" si="11"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="95" spans="6:22">
+      <c r="F95" s="11">
         <v>0.86</v>
       </c>
       <c r="G95" s="4">
@@ -33766,13 +35418,32 @@
         <f>ROUND($G$3/G95,2)</f>
         <v>714.29</v>
       </c>
-      <c r="I95" s="15">
+      <c r="I95" s="14">
         <f>H95/$G$5</f>
         <v>7.1429</v>
       </c>
-    </row>
-    <row r="96" spans="6:9">
-      <c r="F96" s="12">
+      <c r="R95" s="4">
+        <v>35</v>
+      </c>
+      <c r="S95" s="16">
+        <f t="shared" si="8"/>
+        <v>0.67741935483871</v>
+      </c>
+      <c r="T95" s="4">
+        <f t="shared" si="9"/>
+        <v>3.2258064516129</v>
+      </c>
+      <c r="U95" s="4">
+        <f t="shared" si="10"/>
+        <v>310</v>
+      </c>
+      <c r="V95" s="14">
+        <f t="shared" si="11"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="96" spans="6:22">
+      <c r="F96" s="11">
         <v>0.87</v>
       </c>
       <c r="G96" s="4">
@@ -33783,13 +35454,32 @@
         <f>ROUND($G$3/G96,2)</f>
         <v>769.23</v>
       </c>
-      <c r="I96" s="15">
+      <c r="I96" s="14">
         <f>H96/$G$5</f>
         <v>7.6923</v>
       </c>
-    </row>
-    <row r="97" spans="6:9">
-      <c r="F97" s="12">
+      <c r="R96" s="4">
+        <v>36</v>
+      </c>
+      <c r="S96" s="16">
+        <f t="shared" si="8"/>
+        <v>0.683544303797468</v>
+      </c>
+      <c r="T96" s="4">
+        <f t="shared" si="9"/>
+        <v>3.16455696202532</v>
+      </c>
+      <c r="U96" s="4">
+        <f t="shared" si="10"/>
+        <v>316</v>
+      </c>
+      <c r="V96" s="14">
+        <f t="shared" si="11"/>
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="97" spans="6:22">
+      <c r="F97" s="11">
         <v>0.88</v>
       </c>
       <c r="G97" s="4">
@@ -33800,13 +35490,32 @@
         <f>ROUND($G$3/G97,2)</f>
         <v>833.33</v>
       </c>
-      <c r="I97" s="15">
+      <c r="I97" s="14">
         <f>H97/$G$5</f>
         <v>8.3333</v>
       </c>
-    </row>
-    <row r="98" spans="6:9">
-      <c r="F98" s="12">
+      <c r="R97" s="4">
+        <v>37</v>
+      </c>
+      <c r="S97" s="16">
+        <f t="shared" si="8"/>
+        <v>0.68944099378882</v>
+      </c>
+      <c r="T97" s="4">
+        <f t="shared" si="9"/>
+        <v>3.1055900621118</v>
+      </c>
+      <c r="U97" s="4">
+        <f t="shared" si="10"/>
+        <v>322</v>
+      </c>
+      <c r="V97" s="14">
+        <f t="shared" si="11"/>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="98" spans="6:22">
+      <c r="F98" s="11">
         <v>0.89</v>
       </c>
       <c r="G98" s="4">
@@ -33817,30 +35526,68 @@
         <f>ROUND($G$3/G98,2)</f>
         <v>909.09</v>
       </c>
-      <c r="I98" s="15">
+      <c r="I98" s="14">
         <f>H98/$G$5</f>
         <v>9.0909</v>
       </c>
-    </row>
-    <row r="99" spans="6:9">
-      <c r="F99" s="13">
+      <c r="R98" s="4">
+        <v>38</v>
+      </c>
+      <c r="S98" s="16">
+        <f t="shared" si="8"/>
+        <v>0.695121951219512</v>
+      </c>
+      <c r="T98" s="4">
+        <f t="shared" si="9"/>
+        <v>3.04878048780488</v>
+      </c>
+      <c r="U98" s="4">
+        <f t="shared" si="10"/>
+        <v>328</v>
+      </c>
+      <c r="V98" s="14">
+        <f t="shared" si="11"/>
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="99" spans="6:22">
+      <c r="F99" s="12">
         <v>0.9</v>
       </c>
-      <c r="G99" s="14">
+      <c r="G99" s="13">
         <f>$G$4*(1-F99)</f>
         <v>1</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="13">
         <f>ROUND($G$3/G99,2)</f>
         <v>1000</v>
       </c>
-      <c r="I99" s="16">
+      <c r="I99" s="15">
         <f>H99/$G$5</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="6:9">
-      <c r="F100" s="12">
+      <c r="R99" s="4">
+        <v>39</v>
+      </c>
+      <c r="S99" s="16">
+        <f t="shared" si="8"/>
+        <v>0.70059880239521</v>
+      </c>
+      <c r="T99" s="4">
+        <f t="shared" si="9"/>
+        <v>2.9940119760479</v>
+      </c>
+      <c r="U99" s="4">
+        <f t="shared" si="10"/>
+        <v>334</v>
+      </c>
+      <c r="V99" s="14">
+        <f t="shared" si="11"/>
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="100" spans="6:22">
+      <c r="F100" s="11">
         <v>0.91</v>
       </c>
       <c r="G100" s="4">
@@ -33851,13 +35598,32 @@
         <f>ROUND($G$3/G100,2)</f>
         <v>1111.11</v>
       </c>
-      <c r="I100" s="15">
+      <c r="I100" s="14">
         <f>H100/$G$5</f>
         <v>11.1111</v>
       </c>
-    </row>
-    <row r="101" spans="6:9">
-      <c r="F101" s="12">
+      <c r="R100" s="4">
+        <v>40</v>
+      </c>
+      <c r="S100" s="16">
+        <f t="shared" si="8"/>
+        <v>0.705882352941177</v>
+      </c>
+      <c r="T100" s="4">
+        <f t="shared" si="9"/>
+        <v>2.94117647058823</v>
+      </c>
+      <c r="U100" s="4">
+        <f t="shared" si="10"/>
+        <v>340</v>
+      </c>
+      <c r="V100" s="14">
+        <f t="shared" si="11"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="101" spans="6:22">
+      <c r="F101" s="11">
         <v>0.92</v>
       </c>
       <c r="G101" s="4">
@@ -33868,13 +35634,32 @@
         <f>ROUND($G$3/G101,2)</f>
         <v>1250</v>
       </c>
-      <c r="I101" s="15">
+      <c r="I101" s="14">
         <f>H101/$G$5</f>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="102" spans="6:9">
-      <c r="F102" s="12">
+      <c r="R101" s="4">
+        <v>41</v>
+      </c>
+      <c r="S101" s="16">
+        <f t="shared" si="8"/>
+        <v>0.710982658959538</v>
+      </c>
+      <c r="T101" s="4">
+        <f t="shared" si="9"/>
+        <v>2.89017341040462</v>
+      </c>
+      <c r="U101" s="4">
+        <f t="shared" si="10"/>
+        <v>346</v>
+      </c>
+      <c r="V101" s="14">
+        <f t="shared" si="11"/>
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="102" spans="6:22">
+      <c r="F102" s="11">
         <v>0.93</v>
       </c>
       <c r="G102" s="4">
@@ -33885,13 +35670,32 @@
         <f>ROUND($G$3/G102,2)</f>
         <v>1428.57</v>
       </c>
-      <c r="I102" s="15">
+      <c r="I102" s="14">
         <f>H102/$G$5</f>
         <v>14.2857</v>
       </c>
-    </row>
-    <row r="103" spans="6:9">
-      <c r="F103" s="12">
+      <c r="R102" s="4">
+        <v>42</v>
+      </c>
+      <c r="S102" s="16">
+        <f t="shared" si="8"/>
+        <v>0.715909090909091</v>
+      </c>
+      <c r="T102" s="4">
+        <f t="shared" si="9"/>
+        <v>2.84090909090909</v>
+      </c>
+      <c r="U102" s="4">
+        <f t="shared" si="10"/>
+        <v>352</v>
+      </c>
+      <c r="V102" s="14">
+        <f t="shared" si="11"/>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="103" spans="6:22">
+      <c r="F103" s="11">
         <v>0.94</v>
       </c>
       <c r="G103" s="4">
@@ -33902,47 +35706,104 @@
         <f>ROUND($G$3/G103,2)</f>
         <v>1666.67</v>
       </c>
-      <c r="I103" s="15">
+      <c r="I103" s="14">
         <f>H103/$G$5</f>
         <v>16.6667</v>
       </c>
-    </row>
-    <row r="104" spans="6:9">
-      <c r="F104" s="13">
+      <c r="R103" s="4">
+        <v>43</v>
+      </c>
+      <c r="S103" s="16">
+        <f t="shared" si="8"/>
+        <v>0.720670391061452</v>
+      </c>
+      <c r="T103" s="4">
+        <f t="shared" si="9"/>
+        <v>2.79329608938548</v>
+      </c>
+      <c r="U103" s="4">
+        <f t="shared" si="10"/>
+        <v>358</v>
+      </c>
+      <c r="V103" s="14">
+        <f t="shared" si="11"/>
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="104" spans="6:22">
+      <c r="F104" s="12">
         <v>0.95</v>
       </c>
-      <c r="G104" s="14">
+      <c r="G104" s="13">
         <f>$G$4*(1-F104)</f>
         <v>0.5</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H104" s="13">
         <f>ROUND($G$3/G104,2)</f>
         <v>2000</v>
       </c>
-      <c r="I104" s="16">
+      <c r="I104" s="15">
         <f>H104/$G$5</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="6:9">
-      <c r="F105" s="13">
+      <c r="R104" s="4">
+        <v>44</v>
+      </c>
+      <c r="S104" s="16">
+        <f t="shared" si="8"/>
+        <v>0.725274725274725</v>
+      </c>
+      <c r="T104" s="4">
+        <f t="shared" si="9"/>
+        <v>2.74725274725275</v>
+      </c>
+      <c r="U104" s="4">
+        <f t="shared" si="10"/>
+        <v>364</v>
+      </c>
+      <c r="V104" s="14">
+        <f t="shared" si="11"/>
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="105" spans="6:22">
+      <c r="F105" s="12">
         <v>0.96</v>
       </c>
-      <c r="G105" s="14">
+      <c r="G105" s="13">
         <f>$G$4*(1-F105)</f>
         <v>0.4</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H105" s="13">
         <f>ROUND($G$3/G105,2)</f>
         <v>2500</v>
       </c>
-      <c r="I105" s="16">
+      <c r="I105" s="15">
         <f>H105/$G$5</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="106" spans="6:9">
-      <c r="F106" s="12">
+      <c r="R105" s="4">
+        <v>45</v>
+      </c>
+      <c r="S105" s="16">
+        <f t="shared" si="8"/>
+        <v>0.72972972972973</v>
+      </c>
+      <c r="T105" s="4">
+        <f t="shared" si="9"/>
+        <v>2.7027027027027</v>
+      </c>
+      <c r="U105" s="4">
+        <f t="shared" si="10"/>
+        <v>370</v>
+      </c>
+      <c r="V105" s="14">
+        <f t="shared" si="11"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="106" spans="6:22">
+      <c r="F106" s="11">
         <v>0.97</v>
       </c>
       <c r="G106" s="4">
@@ -33953,50 +35814,107 @@
         <f>ROUND($G$3/G106,2)</f>
         <v>3333.33</v>
       </c>
-      <c r="I106" s="15">
+      <c r="I106" s="14">
         <f>H106/$G$5</f>
         <v>33.3333</v>
       </c>
-    </row>
-    <row r="107" spans="6:9">
-      <c r="F107" s="13">
+      <c r="R106" s="4">
+        <v>46</v>
+      </c>
+      <c r="S106" s="16">
+        <f t="shared" si="8"/>
+        <v>0.734042553191489</v>
+      </c>
+      <c r="T106" s="4">
+        <f t="shared" si="9"/>
+        <v>2.65957446808511</v>
+      </c>
+      <c r="U106" s="4">
+        <f t="shared" si="10"/>
+        <v>376</v>
+      </c>
+      <c r="V106" s="14">
+        <f t="shared" si="11"/>
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="107" spans="6:22">
+      <c r="F107" s="12">
         <v>0.98</v>
       </c>
-      <c r="G107" s="14">
+      <c r="G107" s="13">
         <f>$G$4*(1-F107)</f>
         <v>0.2</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H107" s="13">
         <f>ROUND($G$3/G107,2)</f>
         <v>5000</v>
       </c>
-      <c r="I107" s="16">
+      <c r="I107" s="15">
         <f>H107/$G$5</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="108" spans="6:9">
-      <c r="F108" s="13">
+      <c r="R107" s="4">
+        <v>47</v>
+      </c>
+      <c r="S107" s="16">
+        <f t="shared" si="8"/>
+        <v>0.738219895287958</v>
+      </c>
+      <c r="T107" s="4">
+        <f>$G$4*(1-S107)</f>
+        <v>2.61780104712042</v>
+      </c>
+      <c r="U107" s="4">
+        <f>ROUND($G$3/T107,2)</f>
+        <v>382</v>
+      </c>
+      <c r="V107" s="14">
+        <f>U107/$G$5</f>
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="108" spans="6:22">
+      <c r="F108" s="12">
         <v>0.99</v>
       </c>
-      <c r="G108" s="14">
+      <c r="G108" s="13">
         <f>$G$4*(1-F108)</f>
         <v>0.1</v>
       </c>
-      <c r="H108" s="14">
+      <c r="H108" s="13">
         <f>ROUND($G$3/G108,2)</f>
         <v>10000</v>
       </c>
-      <c r="I108" s="16">
+      <c r="I108" s="15">
         <f>H108/$G$5</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="6:9">
-      <c r="F109" s="13">
+      <c r="R108" s="4">
+        <v>48</v>
+      </c>
+      <c r="S108" s="16">
+        <f t="shared" si="8"/>
+        <v>0.742268041237113</v>
+      </c>
+      <c r="T108" s="4">
+        <f>$G$4*(1-S108)</f>
+        <v>2.57731958762887</v>
+      </c>
+      <c r="U108" s="4">
+        <f>ROUND($G$3/T108,2)</f>
+        <v>388</v>
+      </c>
+      <c r="V108" s="14">
+        <f>U108/$G$5</f>
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="109" spans="6:22">
+      <c r="F109" s="12">
         <v>1</v>
       </c>
-      <c r="G109" s="14">
+      <c r="G109" s="13">
         <f>$G$4*(1-F109)</f>
         <v>0</v>
       </c>
@@ -34006,45 +35924,83 @@
       <c r="I109" s="17" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="110" spans="6:6">
-      <c r="F110" s="12"/>
+      <c r="R109" s="4">
+        <v>49</v>
+      </c>
+      <c r="S109" s="16">
+        <f t="shared" si="8"/>
+        <v>0.746192893401015</v>
+      </c>
+      <c r="T109" s="4">
+        <f>$G$4*(1-S109)</f>
+        <v>2.53807106598985</v>
+      </c>
+      <c r="U109" s="4">
+        <f>ROUND($G$3/T109,2)</f>
+        <v>394</v>
+      </c>
+      <c r="V109" s="14">
+        <f>U109/$G$5</f>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="110" spans="6:22">
+      <c r="F110" s="11"/>
+      <c r="R110" s="4">
+        <v>50</v>
+      </c>
+      <c r="S110" s="16">
+        <f>0.06*R110/(1+0.06*R110)</f>
+        <v>0.75</v>
+      </c>
+      <c r="T110" s="4">
+        <f>$G$4*(1-S110)</f>
+        <v>2.5</v>
+      </c>
+      <c r="U110" s="4">
+        <f>ROUND($G$3/T110,2)</f>
+        <v>400</v>
+      </c>
+      <c r="V110" s="14">
+        <f>U110/$G$5</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="111" spans="6:6">
-      <c r="F111" s="12"/>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" spans="6:6">
-      <c r="F112" s="12"/>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" spans="6:6">
-      <c r="F113" s="12"/>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" spans="6:6">
-      <c r="F114" s="12"/>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" spans="6:6">
-      <c r="F115" s="12"/>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" spans="6:6">
-      <c r="F116" s="12"/>
+      <c r="F116" s="11"/>
     </row>
     <row r="117" spans="6:6">
-      <c r="F117" s="12"/>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" spans="6:6">
-      <c r="F118" s="12"/>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" spans="6:6">
-      <c r="F119" s="12"/>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" spans="6:6">
-      <c r="F120" s="12"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="6:6">
-      <c r="F121" s="12"/>
+      <c r="F121" s="11"/>
     </row>
     <row r="122" spans="6:6">
-      <c r="F122" s="12"/>
+      <c r="F122" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34069,27 +36025,27 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -34103,8 +36059,8 @@
   <sheetPr/>
   <dimension ref="C5:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="17.4"/>
@@ -34114,7 +36070,7 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D5" s="4">
         <v>2.54</v>
@@ -34127,41 +36083,41 @@
       <c r="F7" s="4">
         <v>9</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="P7" s="7"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="4:16">
       <c r="D8" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
+        <v>313</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
         <v>2400</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="1">
         <v>1200</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="1">
         <v>800</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="3:16">
       <c r="C9" s="4">
@@ -34179,12 +36135,12 @@
         <f t="shared" ref="F9:F20" si="1">ROUND(D9*$F$7,1)</f>
         <v>49.8</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="3:16">
       <c r="C10" s="4">
@@ -34202,20 +36158,20 @@
         <f t="shared" si="1"/>
         <v>62.3</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="P10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="3:16">
       <c r="C11" s="4">
@@ -34233,22 +36189,22 @@
         <f t="shared" si="1"/>
         <v>68.5</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="K11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L11" s="7">
         <v>4198</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" ref="M11:M21" si="2">L11*$M$8/1000000</f>
         <v>10.0752</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
         <f t="shared" ref="O11:O13" si="3">$L11*$M$8/1000000*$O$8</f>
         <v>8060.16</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" spans="3:16">
       <c r="C12" s="4">
@@ -34266,22 +36222,22 @@
         <f t="shared" si="1"/>
         <v>74.7</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="K12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L12" s="7">
         <v>3533</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f t="shared" si="2"/>
         <v>8.4792</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
         <f t="shared" si="3"/>
         <v>6783.36</v>
       </c>
-      <c r="P12" s="7"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="3:16">
       <c r="C13" s="4">
@@ -34299,22 +36255,22 @@
         <f t="shared" si="1"/>
         <v>80.9</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="L13" s="8">
+      <c r="K13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" s="7">
         <v>2744</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" si="2"/>
         <v>6.5856</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
         <f t="shared" si="3"/>
         <v>5268.48</v>
       </c>
-      <c r="P13" s="7"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="3:16">
       <c r="C14" s="4">
@@ -34332,22 +36288,22 @@
         <f t="shared" si="1"/>
         <v>87.2</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="K14" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L14" s="7">
         <v>1752</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f t="shared" si="2"/>
         <v>4.2048</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <f t="shared" ref="N14:N21" si="4">$L14*$M$8/1000000*$N$8</f>
         <v>5045.76</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="4">
@@ -34365,22 +36321,22 @@
         <f t="shared" si="1"/>
         <v>93.4</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="K15" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L15" s="7">
         <v>719</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" si="2"/>
         <v>1.7256</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <f t="shared" si="4"/>
         <v>2070.72</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="4">
@@ -34398,22 +36354,22 @@
         <f t="shared" si="1"/>
         <v>99.6</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="L16" s="8">
+      <c r="K16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L16" s="7">
         <v>2277</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" si="2"/>
         <v>5.4648</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <f t="shared" si="4"/>
         <v>6557.76</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="1"/>
     </row>
     <row r="17" spans="3:16">
       <c r="C17" s="4">
@@ -34431,22 +36387,22 @@
         <f t="shared" si="1"/>
         <v>105.8</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="L17" s="8">
+      <c r="K17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L17" s="7">
         <v>1354</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <f t="shared" si="2"/>
         <v>3.2496</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <f t="shared" si="4"/>
         <v>3899.52</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="3:16">
       <c r="C18" s="4">
@@ -34464,22 +36420,22 @@
         <f t="shared" si="1"/>
         <v>112.1</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="L18" s="8">
+      <c r="K18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L18" s="7">
         <v>1354</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f t="shared" si="2"/>
         <v>3.2496</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f t="shared" si="4"/>
         <v>3899.52</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="3:16">
       <c r="C19" s="4">
@@ -34497,22 +36453,22 @@
         <f t="shared" si="1"/>
         <v>118.3</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="L19" s="8">
+      <c r="K19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L19" s="7">
         <v>2607</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <f t="shared" si="2"/>
         <v>6.2568</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <f t="shared" si="4"/>
         <v>7508.16</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" spans="3:16">
       <c r="C20" s="4">
@@ -34530,87 +36486,87 @@
         <f t="shared" si="1"/>
         <v>124.5</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="L20" s="8">
+      <c r="K20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L20" s="7">
         <v>763</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <f t="shared" si="2"/>
         <v>1.8312</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <f t="shared" si="4"/>
         <v>2197.44</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="11:16">
-      <c r="K21" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="L21" s="8">
+      <c r="K21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L21" s="7">
         <f>2940+1667</f>
         <v>4607</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <f t="shared" si="2"/>
         <v>11.0568</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <f t="shared" si="4"/>
         <v>13268.16</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="11:16">
-      <c r="K22" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="L22" s="9">
+      <c r="K22" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="L22" s="8">
         <f t="shared" ref="L22:O22" si="5">SUM(L11:L21)</f>
         <v>25908</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <f t="shared" si="5"/>
         <v>62.1792</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <f t="shared" si="5"/>
         <v>44447.04</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="8">
         <f t="shared" si="5"/>
         <v>20112</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="9">
         <f>N22+O22</f>
         <v>64559.04</v>
       </c>
     </row>
     <row r="23" spans="11:16">
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="11:16">
-      <c r="K24" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="L24" s="11">
+      <c r="K24" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L24" s="10">
         <f>L22*500/1000000/108</f>
         <v>0.119944444444444</v>
       </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34637,60 +36593,60 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="3:6">
       <c r="C5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="3:6">
       <c r="C6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="3:5">
       <c r="C7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E7" t="s">
         <v>203</v>
@@ -34698,77 +36654,77 @@
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="5:5">
       <c r="E15" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F18" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G18" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="5:6">
       <c r="E22" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F22" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="5:6">
       <c r="E26" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F26" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/数值规划/B游戏想法记录.xlsx
+++ b/数值规划/B游戏想法记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="5"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="贪石蛇" sheetId="9" r:id="rId1"/>
@@ -1243,8 +1243,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
@@ -1959,7 +1959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1975,10 +1975,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2032,7 +2032,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2053,16 +2053,16 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,9 +2081,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7465,44 +7462,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:24">
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
     </row>
     <row r="2" spans="12:24">
       <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="53" t="s">
+      <c r="W2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="6:24">
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -7528,7 +7525,7 @@
       </c>
     </row>
     <row r="4" spans="6:24">
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -7551,7 +7548,7 @@
       </c>
     </row>
     <row r="5" spans="6:24">
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="50" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -7619,29 +7616,29 @@
       </c>
     </row>
     <row r="11" spans="21:24">
-      <c r="U11" s="52" t="s">
+      <c r="U11" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
     </row>
     <row r="12" spans="21:24">
-      <c r="U12" s="53" t="s">
+      <c r="U12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="53" t="s">
+      <c r="V12" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="W12" s="53" t="s">
+      <c r="W12" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="X12" s="53" t="s">
+      <c r="X12" s="52" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="21:24">
-      <c r="U13" s="54">
+      <c r="U13" s="53">
         <v>0</v>
       </c>
       <c r="V13" s="23">
@@ -7700,20 +7697,20 @@
       </c>
     </row>
     <row r="18" spans="21:23">
-      <c r="U18" s="52" t="s">
+      <c r="U18" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
     </row>
     <row r="19" spans="21:23">
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="V19" s="53" t="s">
+      <c r="V19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="W19" s="53" t="s">
+      <c r="W19" s="52" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7773,20 +7770,20 @@
       </c>
     </row>
     <row r="26" spans="21:23">
-      <c r="U26" s="52" t="s">
+      <c r="U26" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
     </row>
     <row r="27" spans="21:23">
-      <c r="U27" s="53" t="s">
+      <c r="U27" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="V27" s="53" t="s">
+      <c r="V27" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="W27" s="53" t="s">
+      <c r="W27" s="52" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8195,27 +8192,27 @@
       <c r="B2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="45">
         <v>1</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="45">
         <v>2</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>3</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="45">
         <v>4</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="45">
         <v>5</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="47">
+      <c r="B3" s="46">
         <v>1</v>
       </c>
       <c r="C3" s="7">
@@ -8244,7 +8241,7 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <v>2</v>
       </c>
       <c r="C4" s="7">
@@ -8273,7 +8270,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>3</v>
       </c>
       <c r="C5" s="7">
@@ -8302,7 +8299,7 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <v>4</v>
       </c>
       <c r="C6" s="7">
@@ -8331,7 +8328,7 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>5</v>
       </c>
       <c r="C7" s="7">
@@ -8360,7 +8357,7 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="47">
+      <c r="B8" s="46">
         <v>6</v>
       </c>
       <c r="C8" s="7">
@@ -8389,136 +8386,136 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="47"/>
+      <c r="B9" s="46"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <f t="shared" ref="E11:E32" si="0">36/D11</f>
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="49">
+      <c r="C12" s="48">
         <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="49">
+      <c r="C13" s="48">
         <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="49">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="49">
+      <c r="C14" s="48">
         <v>5</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="49">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="49">
+      <c r="C15" s="48">
         <v>6</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="49">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="49">
+      <c r="C16" s="48">
         <v>7</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="49">
+      <c r="C17" s="48">
         <v>8</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="49">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="49">
+      <c r="C18" s="48">
         <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="49">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="49">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="49">
+      <c r="C20" s="48">
         <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="49">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="48" t="s">
         <v>91</v>
       </c>
       <c r="H20" s="1">
@@ -8527,17 +8524,17 @@
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="49">
+      <c r="C21" s="48">
         <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="49">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="48">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8547,46 +8544,46 @@
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="48" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="1">
         <f>D12+D14+D16+D18+D20</f>
         <v>18</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G22" s="49"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="48" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="1">
         <f>D11+D13+D15+D17+D19+D21</f>
         <v>18</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="3:15">
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="48" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="1">
         <f>SUM(D11:D15)</f>
         <v>15</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="49">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="G24" s="49"/>
+      <c r="G24" s="48"/>
       <c r="N24" s="1" t="s">
         <v>95</v>
       </c>
@@ -8595,18 +8592,18 @@
       </c>
     </row>
     <row r="25" spans="3:15">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>97</v>
       </c>
       <c r="D25" s="1">
         <f>SUM(D17:D21)</f>
         <v>15</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="49">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="G25" s="49"/>
+      <c r="G25" s="48"/>
       <c r="N25" s="1" t="s">
         <v>95</v>
       </c>
@@ -8615,17 +8612,17 @@
       </c>
     </row>
     <row r="26" spans="3:15">
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>99</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G26" s="49"/>
+      <c r="G26" s="48"/>
       <c r="N26" s="1" t="s">
         <v>95</v>
       </c>
@@ -8634,17 +8631,17 @@
       </c>
     </row>
     <row r="27" spans="3:15">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="48" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="48" t="s">
         <v>102</v>
       </c>
       <c r="H27" s="1">
@@ -8659,17 +8656,17 @@
       </c>
     </row>
     <row r="28" spans="3:15">
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="48" t="s">
         <v>104</v>
       </c>
       <c r="D28" s="1">
         <v>6</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="54" t="s">
         <v>105</v>
       </c>
       <c r="H28" s="1">
@@ -8684,13 +8681,13 @@
       </c>
     </row>
     <row r="29" spans="3:15">
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="1">
         <v>6</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8699,13 +8696,13 @@
       </c>
     </row>
     <row r="30" spans="3:15">
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="48" t="s">
         <v>109</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8714,13 +8711,13 @@
       </c>
     </row>
     <row r="31" spans="3:15">
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="48" t="s">
         <v>111</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E31" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8732,13 +8729,13 @@
       </c>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="1">
         <v>6</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8753,7 +8750,7 @@
       </c>
     </row>
     <row r="33" spans="3:15">
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="48" t="s">
         <v>116</v>
       </c>
       <c r="D33" s="1">
@@ -8770,7 +8767,7 @@
       </c>
     </row>
     <row r="34" spans="3:15">
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>118</v>
       </c>
       <c r="D34" s="1">
@@ -8787,7 +8784,7 @@
       </c>
     </row>
     <row r="35" spans="3:15">
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="48" t="s">
         <v>121</v>
       </c>
       <c r="D35" s="1">
@@ -8801,7 +8798,7 @@
       </c>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="48" t="s">
         <v>123</v>
       </c>
       <c r="D36" s="1">
@@ -8815,7 +8812,7 @@
       </c>
     </row>
     <row r="37" spans="3:15">
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="48" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="1">
@@ -8829,7 +8826,7 @@
       </c>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="48" t="s">
         <v>127</v>
       </c>
       <c r="D38" s="1">
@@ -9050,8 +9047,8 @@
   <sheetPr/>
   <dimension ref="B1:U102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8518518518519" defaultRowHeight="17.4"/>
@@ -9167,27 +9164,28 @@
         <f>1/SUMPRODUCT(C3:C102,F3:F102)</f>
         <v>0.20732441627772</v>
       </c>
-      <c r="I3" s="41">
-        <v>0.3</v>
+      <c r="I3" s="36">
+        <f>1/45</f>
+        <v>0.0222222222222222</v>
       </c>
       <c r="J3" s="25">
         <v>1</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="41">
         <f>IF(J3&gt;=$I$5,100%,$I$3)</f>
-        <v>0.3</v>
-      </c>
-      <c r="L3" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L3" s="42">
         <f t="shared" ref="L3:L22" si="1">1-K3</f>
-        <v>0.7</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M3" s="25">
         <f>K3</f>
-        <v>0.3</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="N3" s="39">
         <f>1/SUMPRODUCT(J3:J102,M3:M102)</f>
-        <v>0.394788787998421</v>
+        <v>0.0374749530339027</v>
       </c>
       <c r="P3" s="36">
         <v>0.03</v>
@@ -9232,23 +9230,23 @@
         <v>0.126</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="43" t="s">
         <v>174</v>
       </c>
       <c r="J4" s="25">
         <v>2</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="41">
         <f>IF(J4&gt;=$I$5,100%,$I$3)</f>
-        <v>0.3</v>
-      </c>
-      <c r="L4" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L4" s="42">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M4" s="25">
         <f>K4*PRODUCT($L$3:L3)</f>
-        <v>0.21</v>
+        <v>0.0217283950617284</v>
       </c>
       <c r="N4" s="25"/>
       <c r="P4" s="25" t="s">
@@ -9291,23 +9289,23 @@
         <v>0.13932</v>
       </c>
       <c r="G5" s="25"/>
-      <c r="I5" s="45">
-        <v>4</v>
+      <c r="I5" s="44">
+        <v>40</v>
       </c>
       <c r="J5" s="25">
         <v>3</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="41">
         <f>IF(J5&gt;=$I$5,100%,$I$3)</f>
-        <v>0.3</v>
-      </c>
-      <c r="L5" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L5" s="42">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M5" s="25">
         <f>K5*PRODUCT($L$3:L4)</f>
-        <v>0.147</v>
+        <v>0.0212455418381344</v>
       </c>
       <c r="N5" s="25"/>
       <c r="P5" s="40">
@@ -9351,20 +9349,20 @@
       <c r="J6" s="25">
         <v>4</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="41">
         <f>IF(J6&gt;=$I$5,100%,$I$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L6" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M6" s="25">
         <f>K6*PRODUCT($L$3:L5)</f>
-        <v>0.343</v>
+        <v>0.0207734186861759</v>
       </c>
       <c r="N6" s="25"/>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="43" t="s">
         <v>174</v>
       </c>
       <c r="Q6" s="25">
@@ -9406,20 +9404,20 @@
       <c r="J7" s="25">
         <v>5</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="41">
         <f t="shared" ref="K7:K22" si="4">IF(J7&gt;=$I$5,100%,$I$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L7" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M7" s="25">
         <f>K7*PRODUCT($L$3:L6)</f>
-        <v>0</v>
+        <v>0.0203117871598164</v>
       </c>
       <c r="N7" s="25"/>
-      <c r="P7" s="45">
+      <c r="P7" s="44">
         <v>30</v>
       </c>
       <c r="Q7" s="25">
@@ -9461,17 +9459,17 @@
       <c r="J8" s="25">
         <v>6</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L8" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M8" s="25">
         <f>K8*PRODUCT($L$3:L7)</f>
-        <v>0</v>
+        <v>0.0198604141118205</v>
       </c>
       <c r="N8" s="25"/>
       <c r="P8" s="25"/>
@@ -9514,17 +9512,17 @@
       <c r="J9" s="25">
         <v>7</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L9" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M9" s="25">
         <f>K9*PRODUCT($L$3:L8)</f>
-        <v>0</v>
+        <v>0.0194190715760023</v>
       </c>
       <c r="N9" s="25"/>
       <c r="P9" s="25"/>
@@ -9567,17 +9565,17 @@
       <c r="J10" s="25">
         <v>8</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L10" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M10" s="25">
         <f>K10*PRODUCT($L$3:L9)</f>
-        <v>0</v>
+        <v>0.0189875366520911</v>
       </c>
       <c r="N10" s="25"/>
       <c r="P10" s="25"/>
@@ -9616,21 +9614,21 @@
         <v>0.0440721351278208</v>
       </c>
       <c r="G11" s="25"/>
-      <c r="I11" s="44"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="25">
         <v>9</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L11" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M11" s="25">
         <f>K11*PRODUCT($L$3:L10)</f>
-        <v>0</v>
+        <v>0.0185655913931557</v>
       </c>
       <c r="N11" s="25"/>
       <c r="P11" s="25"/>
@@ -9673,17 +9671,17 @@
       <c r="J12" s="25">
         <v>10</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L12" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M12" s="25">
         <f>K12*PRODUCT($L$3:L11)</f>
-        <v>0</v>
+        <v>0.0181530226955301</v>
       </c>
       <c r="N12" s="25"/>
       <c r="P12" s="25"/>
@@ -9726,17 +9724,17 @@
       <c r="J13" s="25">
         <v>11</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L13" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M13" s="25">
         <f>K13*PRODUCT($L$3:L12)</f>
-        <v>0</v>
+        <v>0.017749622191185</v>
       </c>
       <c r="N13" s="25"/>
       <c r="P13" s="25"/>
@@ -9779,17 +9777,17 @@
       <c r="J14" s="25">
         <v>12</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L14" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M14" s="25">
         <f>K14*PRODUCT($L$3:L13)</f>
-        <v>0</v>
+        <v>0.017355186142492</v>
       </c>
       <c r="N14" s="25"/>
       <c r="P14" s="25"/>
@@ -9832,17 +9830,17 @@
       <c r="J15" s="25">
         <v>13</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L15" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M15" s="25">
         <f>K15*PRODUCT($L$3:L14)</f>
-        <v>0</v>
+        <v>0.0169695153393255</v>
       </c>
       <c r="N15" s="25"/>
       <c r="P15" s="25"/>
@@ -9884,17 +9882,17 @@
       <c r="J16" s="25">
         <v>14</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L16" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L16" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M16" s="25">
         <f>K16*PRODUCT($L$3:L15)</f>
-        <v>0</v>
+        <v>0.0165924149984516</v>
       </c>
       <c r="P16" s="25"/>
       <c r="Q16" s="25">
@@ -9935,17 +9933,17 @@
       <c r="J17" s="25">
         <v>15</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L17" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M17" s="25">
         <f>K17*PRODUCT($L$3:L16)</f>
-        <v>0</v>
+        <v>0.0162236946651526</v>
       </c>
       <c r="P17" s="25"/>
       <c r="Q17" s="25">
@@ -9986,17 +9984,17 @@
       <c r="J18" s="25">
         <v>16</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L18" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M18" s="25">
         <f>K18*PRODUCT($L$3:L17)</f>
-        <v>0</v>
+        <v>0.0158631681170381</v>
       </c>
       <c r="P18" s="25"/>
       <c r="Q18" s="25">
@@ -10037,17 +10035,17 @@
       <c r="J19" s="25">
         <v>17</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L19" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M19" s="25">
         <f>K19*PRODUCT($L$3:L18)</f>
-        <v>0</v>
+        <v>0.0155106532699928</v>
       </c>
       <c r="P19" s="25"/>
       <c r="Q19" s="25">
@@ -10088,17 +10086,17 @@
       <c r="J20" s="25">
         <v>18</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L20" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M20" s="25">
         <f>K20*PRODUCT($L$3:L19)</f>
-        <v>0</v>
+        <v>0.0151659720862152</v>
       </c>
       <c r="P20" s="25"/>
       <c r="Q20" s="25">
@@ -10139,17 +10137,17 @@
       <c r="J21" s="25">
         <v>19</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L21" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M21" s="25">
         <f>K21*PRODUCT($L$3:L20)</f>
-        <v>0</v>
+        <v>0.0148289504842993</v>
       </c>
       <c r="P21" s="25"/>
       <c r="Q21" s="25">
@@ -10190,17 +10188,17 @@
       <c r="J22" s="25">
         <v>20</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L22" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M22" s="25">
         <f>K22*PRODUCT($L$3:L21)</f>
-        <v>0</v>
+        <v>0.0144994182513149</v>
       </c>
       <c r="P22" s="25"/>
       <c r="Q22" s="25">
@@ -10241,17 +10239,17 @@
       <c r="J23" s="25">
         <v>21</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <f t="shared" ref="K23:K54" si="6">IF(J23&gt;=$I$5,100%,$I$3)</f>
-        <v>1</v>
-      </c>
-      <c r="L23" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L23" s="42">
         <f t="shared" ref="L23:L54" si="7">1-K23</f>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M23" s="25">
         <f>K23*PRODUCT($L$3:L22)</f>
-        <v>0</v>
+        <v>0.0141772089568412</v>
       </c>
       <c r="P23" s="25"/>
       <c r="Q23" s="25">
@@ -10292,17 +10290,17 @@
       <c r="J24" s="25">
         <v>22</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L24" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M24" s="25">
         <f>K24*PRODUCT($L$3:L23)</f>
-        <v>0</v>
+        <v>0.0138621598689114</v>
       </c>
       <c r="P24" s="25"/>
       <c r="Q24" s="25">
@@ -10343,17 +10341,17 @@
       <c r="J25" s="25">
         <v>23</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L25" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M25" s="25">
         <f>K25*PRODUCT($L$3:L24)</f>
-        <v>0</v>
+        <v>0.0135541118718245</v>
       </c>
       <c r="P25" s="25"/>
       <c r="Q25" s="25">
@@ -10394,17 +10392,17 @@
       <c r="J26" s="25">
         <v>24</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L26" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L26" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M26" s="25">
         <f>K26*PRODUCT($L$3:L25)</f>
-        <v>0</v>
+        <v>0.013252909385784</v>
       </c>
       <c r="P26" s="25"/>
       <c r="Q26" s="25">
@@ -10445,17 +10443,17 @@
       <c r="J27" s="25">
         <v>25</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L27" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M27" s="25">
         <f>K27*PRODUCT($L$3:L26)</f>
-        <v>0</v>
+        <v>0.0129584002883221</v>
       </c>
       <c r="P27" s="25"/>
       <c r="Q27" s="25">
@@ -10496,17 +10494,17 @@
       <c r="J28" s="25">
         <v>26</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L28" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M28" s="25">
         <f>K28*PRODUCT($L$3:L27)</f>
-        <v>0</v>
+        <v>0.0126704358374705</v>
       </c>
       <c r="P28" s="25"/>
       <c r="Q28" s="25">
@@ -10547,17 +10545,17 @@
       <c r="J29" s="25">
         <v>27</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L29" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M29" s="25">
         <f>K29*PRODUCT($L$3:L28)</f>
-        <v>0</v>
+        <v>0.0123888705966378</v>
       </c>
       <c r="P29" s="25"/>
       <c r="Q29" s="25">
@@ -10598,17 +10596,17 @@
       <c r="J30" s="25">
         <v>28</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L30" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M30" s="25">
         <f>K30*PRODUCT($L$3:L29)</f>
-        <v>0</v>
+        <v>0.012113562361157</v>
       </c>
       <c r="P30" s="25"/>
       <c r="Q30" s="25">
@@ -10649,17 +10647,17 @@
       <c r="J31" s="25">
         <v>29</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L31" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M31" s="25">
         <f>K31*PRODUCT($L$3:L30)</f>
-        <v>0</v>
+        <v>0.0118443720864646</v>
       </c>
       <c r="P31" s="25"/>
       <c r="Q31" s="25">
@@ -10700,17 +10698,17 @@
       <c r="J32" s="25">
         <v>30</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L32" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L32" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M32" s="25">
         <f>K32*PRODUCT($L$3:L31)</f>
-        <v>0</v>
+        <v>0.0115811638178765</v>
       </c>
       <c r="P32" s="25"/>
       <c r="Q32" s="25">
@@ -10751,17 +10749,17 @@
       <c r="J33" s="25">
         <v>31</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L33" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L33" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M33" s="25">
         <f>K33*PRODUCT($L$3:L32)</f>
-        <v>0</v>
+        <v>0.0113238046219237</v>
       </c>
       <c r="P33" s="25"/>
       <c r="Q33" s="25">
@@ -10802,17 +10800,17 @@
       <c r="J34" s="25">
         <v>32</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L34" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L34" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M34" s="25">
         <f>K34*PRODUCT($L$3:L33)</f>
-        <v>0</v>
+        <v>0.0110721645192143</v>
       </c>
       <c r="P34" s="25"/>
       <c r="Q34" s="25">
@@ -10853,17 +10851,17 @@
       <c r="J35" s="25">
         <v>33</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L35" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M35" s="25">
         <f>K35*PRODUCT($L$3:L34)</f>
-        <v>0</v>
+        <v>0.0108261164187873</v>
       </c>
       <c r="P35" s="25"/>
       <c r="Q35" s="25">
@@ -10904,17 +10902,17 @@
       <c r="J36" s="25">
         <v>34</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L36" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M36" s="25">
         <f>K36*PRODUCT($L$3:L35)</f>
-        <v>0</v>
+        <v>0.0105855360539253</v>
       </c>
       <c r="P36" s="25"/>
       <c r="Q36" s="25">
@@ -10955,17 +10953,17 @@
       <c r="J37" s="25">
         <v>35</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L37" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L37" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M37" s="25">
         <f>K37*PRODUCT($L$3:L36)</f>
-        <v>0</v>
+        <v>0.0103503019193937</v>
       </c>
       <c r="P37" s="25"/>
       <c r="Q37" s="25">
@@ -11006,17 +11004,17 @@
       <c r="J38" s="25">
         <v>36</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L38" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L38" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M38" s="25">
         <f>K38*PRODUCT($L$3:L37)</f>
-        <v>0</v>
+        <v>0.0101202952100738</v>
       </c>
       <c r="P38" s="25"/>
       <c r="Q38" s="25">
@@ -11057,17 +11055,17 @@
       <c r="J39" s="25">
         <v>37</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L39" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L39" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M39" s="25">
         <f>K39*PRODUCT($L$3:L38)</f>
-        <v>0</v>
+        <v>0.00989539976096106</v>
       </c>
       <c r="P39" s="25"/>
       <c r="Q39" s="25">
@@ -11108,17 +11106,17 @@
       <c r="J40" s="25">
         <v>38</v>
       </c>
-      <c r="K40" s="42">
+      <c r="K40" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L40" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L40" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M40" s="25">
         <f>K40*PRODUCT($L$3:L39)</f>
-        <v>0</v>
+        <v>0.00967550198849526</v>
       </c>
       <c r="P40" s="25"/>
       <c r="Q40" s="25">
@@ -11159,17 +11157,17 @@
       <c r="J41" s="25">
         <v>39</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="41">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L41" s="43">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L41" s="42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="M41" s="25">
         <f>K41*PRODUCT($L$3:L40)</f>
-        <v>0</v>
+        <v>0.00946049083319536</v>
       </c>
       <c r="P41" s="25"/>
       <c r="Q41" s="25">
@@ -11210,17 +11208,17 @@
       <c r="J42" s="25">
         <v>40</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L42" s="43">
+      <c r="L42" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M42" s="25">
         <f>K42*PRODUCT($L$3:L41)</f>
-        <v>0</v>
+        <v>0.416261596660596</v>
       </c>
       <c r="P42" s="25"/>
       <c r="Q42" s="25">
@@ -11261,11 +11259,11 @@
       <c r="J43" s="25">
         <v>41</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L43" s="43">
+      <c r="L43" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11312,11 +11310,11 @@
       <c r="J44" s="25">
         <v>42</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L44" s="43">
+      <c r="L44" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11363,11 +11361,11 @@
       <c r="J45" s="25">
         <v>43</v>
       </c>
-      <c r="K45" s="42">
+      <c r="K45" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L45" s="43">
+      <c r="L45" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11414,11 +11412,11 @@
       <c r="J46" s="25">
         <v>44</v>
       </c>
-      <c r="K46" s="42">
+      <c r="K46" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L46" s="43">
+      <c r="L46" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11465,11 +11463,11 @@
       <c r="J47" s="25">
         <v>45</v>
       </c>
-      <c r="K47" s="42">
+      <c r="K47" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L47" s="43">
+      <c r="L47" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11516,11 +11514,11 @@
       <c r="J48" s="25">
         <v>46</v>
       </c>
-      <c r="K48" s="42">
+      <c r="K48" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L48" s="43">
+      <c r="L48" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11567,11 +11565,11 @@
       <c r="J49" s="25">
         <v>47</v>
       </c>
-      <c r="K49" s="42">
+      <c r="K49" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L49" s="43">
+      <c r="L49" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11618,11 +11616,11 @@
       <c r="J50" s="25">
         <v>48</v>
       </c>
-      <c r="K50" s="42">
+      <c r="K50" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L50" s="43">
+      <c r="L50" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11669,11 +11667,11 @@
       <c r="J51" s="25">
         <v>49</v>
       </c>
-      <c r="K51" s="42">
+      <c r="K51" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L51" s="43">
+      <c r="L51" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11720,11 +11718,11 @@
       <c r="J52" s="25">
         <v>50</v>
       </c>
-      <c r="K52" s="42">
+      <c r="K52" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L52" s="43">
+      <c r="L52" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11769,11 +11767,11 @@
       <c r="J53" s="25">
         <v>51</v>
       </c>
-      <c r="K53" s="42">
+      <c r="K53" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L53" s="43">
+      <c r="L53" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11816,11 +11814,11 @@
       <c r="J54" s="25">
         <v>52</v>
       </c>
-      <c r="K54" s="42">
+      <c r="K54" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L54" s="43">
+      <c r="L54" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11863,11 +11861,11 @@
       <c r="J55" s="25">
         <v>53</v>
       </c>
-      <c r="K55" s="42">
+      <c r="K55" s="41">
         <f t="shared" ref="K55:K86" si="9">IF(J55&gt;=$I$5,100%,$I$3)</f>
         <v>1</v>
       </c>
-      <c r="L55" s="43">
+      <c r="L55" s="42">
         <f t="shared" ref="L55:L86" si="10">1-K55</f>
         <v>0</v>
       </c>
@@ -11910,11 +11908,11 @@
       <c r="J56" s="25">
         <v>54</v>
       </c>
-      <c r="K56" s="42">
+      <c r="K56" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L56" s="43">
+      <c r="L56" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11957,11 +11955,11 @@
       <c r="J57" s="25">
         <v>55</v>
       </c>
-      <c r="K57" s="42">
+      <c r="K57" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L57" s="43">
+      <c r="L57" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12004,11 +12002,11 @@
       <c r="J58" s="25">
         <v>56</v>
       </c>
-      <c r="K58" s="42">
+      <c r="K58" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L58" s="43">
+      <c r="L58" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12051,11 +12049,11 @@
       <c r="J59" s="25">
         <v>57</v>
       </c>
-      <c r="K59" s="42">
+      <c r="K59" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L59" s="43">
+      <c r="L59" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12098,11 +12096,11 @@
       <c r="J60" s="25">
         <v>58</v>
       </c>
-      <c r="K60" s="42">
+      <c r="K60" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L60" s="43">
+      <c r="L60" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12145,11 +12143,11 @@
       <c r="J61" s="25">
         <v>59</v>
       </c>
-      <c r="K61" s="42">
+      <c r="K61" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L61" s="43">
+      <c r="L61" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12192,11 +12190,11 @@
       <c r="J62" s="25">
         <v>60</v>
       </c>
-      <c r="K62" s="42">
+      <c r="K62" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L62" s="43">
+      <c r="L62" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12239,11 +12237,11 @@
       <c r="J63" s="25">
         <v>61</v>
       </c>
-      <c r="K63" s="42">
+      <c r="K63" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L63" s="43">
+      <c r="L63" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12286,11 +12284,11 @@
       <c r="J64" s="25">
         <v>62</v>
       </c>
-      <c r="K64" s="42">
+      <c r="K64" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L64" s="43">
+      <c r="L64" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12333,11 +12331,11 @@
       <c r="J65" s="25">
         <v>63</v>
       </c>
-      <c r="K65" s="42">
+      <c r="K65" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L65" s="43">
+      <c r="L65" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12380,11 +12378,11 @@
       <c r="J66" s="25">
         <v>64</v>
       </c>
-      <c r="K66" s="42">
+      <c r="K66" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L66" s="43">
+      <c r="L66" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12427,11 +12425,11 @@
       <c r="J67" s="25">
         <v>65</v>
       </c>
-      <c r="K67" s="42">
+      <c r="K67" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L67" s="43">
+      <c r="L67" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12474,11 +12472,11 @@
       <c r="J68" s="25">
         <v>66</v>
       </c>
-      <c r="K68" s="42">
+      <c r="K68" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L68" s="43">
+      <c r="L68" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12521,11 +12519,11 @@
       <c r="J69" s="25">
         <v>67</v>
       </c>
-      <c r="K69" s="42">
+      <c r="K69" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L69" s="43">
+      <c r="L69" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12568,11 +12566,11 @@
       <c r="J70" s="25">
         <v>68</v>
       </c>
-      <c r="K70" s="42">
+      <c r="K70" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L70" s="43">
+      <c r="L70" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12615,11 +12613,11 @@
       <c r="J71" s="25">
         <v>69</v>
       </c>
-      <c r="K71" s="42">
+      <c r="K71" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L71" s="43">
+      <c r="L71" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12662,11 +12660,11 @@
       <c r="J72" s="25">
         <v>70</v>
       </c>
-      <c r="K72" s="42">
+      <c r="K72" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L72" s="43">
+      <c r="L72" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12709,11 +12707,11 @@
       <c r="J73" s="25">
         <v>71</v>
       </c>
-      <c r="K73" s="42">
+      <c r="K73" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L73" s="43">
+      <c r="L73" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12756,11 +12754,11 @@
       <c r="J74" s="25">
         <v>72</v>
       </c>
-      <c r="K74" s="42">
+      <c r="K74" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L74" s="43">
+      <c r="L74" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12803,11 +12801,11 @@
       <c r="J75" s="25">
         <v>73</v>
       </c>
-      <c r="K75" s="42">
+      <c r="K75" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L75" s="43">
+      <c r="L75" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12850,11 +12848,11 @@
       <c r="J76" s="25">
         <v>74</v>
       </c>
-      <c r="K76" s="42">
+      <c r="K76" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L76" s="43">
+      <c r="L76" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12897,11 +12895,11 @@
       <c r="J77" s="25">
         <v>75</v>
       </c>
-      <c r="K77" s="42">
+      <c r="K77" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L77" s="43">
+      <c r="L77" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12944,11 +12942,11 @@
       <c r="J78" s="25">
         <v>76</v>
       </c>
-      <c r="K78" s="42">
+      <c r="K78" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L78" s="43">
+      <c r="L78" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12991,11 +12989,11 @@
       <c r="J79" s="25">
         <v>77</v>
       </c>
-      <c r="K79" s="42">
+      <c r="K79" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L79" s="43">
+      <c r="L79" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13038,11 +13036,11 @@
       <c r="J80" s="25">
         <v>78</v>
       </c>
-      <c r="K80" s="42">
+      <c r="K80" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L80" s="43">
+      <c r="L80" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13085,11 +13083,11 @@
       <c r="J81" s="25">
         <v>79</v>
       </c>
-      <c r="K81" s="42">
+      <c r="K81" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L81" s="43">
+      <c r="L81" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13132,11 +13130,11 @@
       <c r="J82" s="25">
         <v>80</v>
       </c>
-      <c r="K82" s="42">
+      <c r="K82" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L82" s="43">
+      <c r="L82" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13179,11 +13177,11 @@
       <c r="J83" s="25">
         <v>81</v>
       </c>
-      <c r="K83" s="42">
+      <c r="K83" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L83" s="43">
+      <c r="L83" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13226,11 +13224,11 @@
       <c r="J84" s="25">
         <v>82</v>
       </c>
-      <c r="K84" s="42">
+      <c r="K84" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L84" s="43">
+      <c r="L84" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13273,11 +13271,11 @@
       <c r="J85" s="25">
         <v>83</v>
       </c>
-      <c r="K85" s="42">
+      <c r="K85" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L85" s="43">
+      <c r="L85" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13320,11 +13318,11 @@
       <c r="J86" s="25">
         <v>84</v>
       </c>
-      <c r="K86" s="42">
+      <c r="K86" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L86" s="43">
+      <c r="L86" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13367,11 +13365,11 @@
       <c r="J87" s="25">
         <v>85</v>
       </c>
-      <c r="K87" s="42">
+      <c r="K87" s="41">
         <f t="shared" ref="K87:K102" si="15">IF(J87&gt;=$I$5,100%,$I$3)</f>
         <v>1</v>
       </c>
-      <c r="L87" s="43">
+      <c r="L87" s="42">
         <f t="shared" ref="L87:L102" si="16">1-K87</f>
         <v>0</v>
       </c>
@@ -13414,11 +13412,11 @@
       <c r="J88" s="25">
         <v>86</v>
       </c>
-      <c r="K88" s="42">
+      <c r="K88" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L88" s="43">
+      <c r="L88" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13461,11 +13459,11 @@
       <c r="J89" s="25">
         <v>87</v>
       </c>
-      <c r="K89" s="42">
+      <c r="K89" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L89" s="43">
+      <c r="L89" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13508,11 +13506,11 @@
       <c r="J90" s="25">
         <v>88</v>
       </c>
-      <c r="K90" s="42">
+      <c r="K90" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L90" s="43">
+      <c r="L90" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13555,11 +13553,11 @@
       <c r="J91" s="25">
         <v>89</v>
       </c>
-      <c r="K91" s="42">
+      <c r="K91" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L91" s="43">
+      <c r="L91" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13602,11 +13600,11 @@
       <c r="J92" s="25">
         <v>90</v>
       </c>
-      <c r="K92" s="42">
+      <c r="K92" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L92" s="43">
+      <c r="L92" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13649,11 +13647,11 @@
       <c r="J93" s="25">
         <v>91</v>
       </c>
-      <c r="K93" s="42">
+      <c r="K93" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L93" s="43">
+      <c r="L93" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13696,11 +13694,11 @@
       <c r="J94" s="25">
         <v>92</v>
       </c>
-      <c r="K94" s="42">
+      <c r="K94" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L94" s="43">
+      <c r="L94" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13743,11 +13741,11 @@
       <c r="J95" s="25">
         <v>93</v>
       </c>
-      <c r="K95" s="42">
+      <c r="K95" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L95" s="43">
+      <c r="L95" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13790,11 +13788,11 @@
       <c r="J96" s="25">
         <v>94</v>
       </c>
-      <c r="K96" s="42">
+      <c r="K96" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L96" s="43">
+      <c r="L96" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13837,11 +13835,11 @@
       <c r="J97" s="25">
         <v>95</v>
       </c>
-      <c r="K97" s="42">
+      <c r="K97" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L97" s="43">
+      <c r="L97" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13884,11 +13882,11 @@
       <c r="J98" s="25">
         <v>96</v>
       </c>
-      <c r="K98" s="42">
+      <c r="K98" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L98" s="43">
+      <c r="L98" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13931,11 +13929,11 @@
       <c r="J99" s="25">
         <v>97</v>
       </c>
-      <c r="K99" s="42">
+      <c r="K99" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L99" s="43">
+      <c r="L99" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13978,11 +13976,11 @@
       <c r="J100" s="25">
         <v>98</v>
       </c>
-      <c r="K100" s="42">
+      <c r="K100" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L100" s="43">
+      <c r="L100" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -14025,11 +14023,11 @@
       <c r="J101" s="25">
         <v>99</v>
       </c>
-      <c r="K101" s="42">
+      <c r="K101" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L101" s="43">
+      <c r="L101" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -14072,11 +14070,11 @@
       <c r="J102" s="25">
         <v>100</v>
       </c>
-      <c r="K102" s="42">
+      <c r="K102" s="41">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L102" s="43">
+      <c r="L102" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -14375,7 +14373,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>190</v>
       </c>
       <c r="O13" s="4">
@@ -32266,7 +32264,7 @@
   <sheetPr/>
   <dimension ref="F3:V122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
@@ -33518,7 +33516,7 @@
         <v>-18</v>
       </c>
       <c r="S42" s="16">
-        <f t="shared" ref="S42:S58" si="4">-0.06*ABS(R42)/(1+0.06*ABS(R42))</f>
+        <f t="shared" ref="S42:S59" si="4">-0.06*ABS(R42)/(1+0.06*ABS(R42))</f>
         <v>-0.519230769230769</v>
       </c>
       <c r="T42" s="4">
@@ -34130,7 +34128,7 @@
         <v>-1</v>
       </c>
       <c r="S59" s="16">
-        <f>-0.06*ABS(R59)/(1+0.06*ABS(R59))</f>
+        <f t="shared" si="4"/>
         <v>-0.0566037735849057</v>
       </c>
       <c r="T59" s="4">
@@ -34238,7 +34236,7 @@
         <v>2</v>
       </c>
       <c r="S62" s="16">
-        <f t="shared" ref="S62:S109" si="8">0.06*R62/(1+0.06*R62)</f>
+        <f t="shared" ref="S62:S110" si="8">0.06*R62/(1+0.06*R62)</f>
         <v>0.107142857142857</v>
       </c>
       <c r="T62" s="4">
@@ -34710,15 +34708,15 @@
         <v>0.473684210526316</v>
       </c>
       <c r="T75" s="4">
-        <f t="shared" ref="T75:T106" si="9">$G$4*(1-S75)</f>
+        <f t="shared" ref="T75:T110" si="9">$G$4*(1-S75)</f>
         <v>5.26315789473684</v>
       </c>
       <c r="U75" s="4">
-        <f t="shared" ref="U75:U106" si="10">ROUND($G$3/T75,2)</f>
+        <f t="shared" ref="U75:U110" si="10">ROUND($G$3/T75,2)</f>
         <v>190</v>
       </c>
       <c r="V75" s="14">
-        <f t="shared" ref="V75:V106" si="11">U75/$G$5</f>
+        <f t="shared" ref="V75:V110" si="11">U75/$G$5</f>
         <v>1.9</v>
       </c>
     </row>
@@ -35862,15 +35860,15 @@
         <v>0.738219895287958</v>
       </c>
       <c r="T107" s="4">
-        <f>$G$4*(1-S107)</f>
+        <f t="shared" si="9"/>
         <v>2.61780104712042</v>
       </c>
       <c r="U107" s="4">
-        <f>ROUND($G$3/T107,2)</f>
+        <f t="shared" si="10"/>
         <v>382</v>
       </c>
       <c r="V107" s="14">
-        <f>U107/$G$5</f>
+        <f t="shared" si="11"/>
         <v>3.82</v>
       </c>
     </row>
@@ -35898,15 +35896,15 @@
         <v>0.742268041237113</v>
       </c>
       <c r="T108" s="4">
-        <f>$G$4*(1-S108)</f>
+        <f t="shared" si="9"/>
         <v>2.57731958762887</v>
       </c>
       <c r="U108" s="4">
-        <f>ROUND($G$3/T108,2)</f>
+        <f t="shared" si="10"/>
         <v>388</v>
       </c>
       <c r="V108" s="14">
-        <f>U108/$G$5</f>
+        <f t="shared" si="11"/>
         <v>3.88</v>
       </c>
     </row>
@@ -35932,15 +35930,15 @@
         <v>0.746192893401015</v>
       </c>
       <c r="T109" s="4">
-        <f>$G$4*(1-S109)</f>
+        <f t="shared" si="9"/>
         <v>2.53807106598985</v>
       </c>
       <c r="U109" s="4">
-        <f>ROUND($G$3/T109,2)</f>
+        <f t="shared" si="10"/>
         <v>394</v>
       </c>
       <c r="V109" s="14">
-        <f>U109/$G$5</f>
+        <f t="shared" si="11"/>
         <v>3.94</v>
       </c>
     </row>
@@ -35950,19 +35948,19 @@
         <v>50</v>
       </c>
       <c r="S110" s="16">
-        <f>0.06*R110/(1+0.06*R110)</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="T110" s="4">
-        <f>$G$4*(1-S110)</f>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="U110" s="4">
-        <f>ROUND($G$3/T110,2)</f>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="V110" s="14">
-        <f>U110/$G$5</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
